--- a/Results/Benchmark_April_6th _no_i.xlsx
+++ b/Results/Benchmark_April_6th _no_i.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="9075" windowHeight="6885" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="360" windowWidth="9075" windowHeight="6885" tabRatio="719" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TI DSP 1 Core" sheetId="1" r:id="rId1"/>
@@ -795,32 +795,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -831,6 +813,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +830,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E103"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,29 +1179,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="14"/>
@@ -1397,69 +1397,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="45"/>
+      <c r="W7" s="47"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -1523,70 +1523,70 @@
       </c>
       <c r="F10" s="20">
         <f>$F74</f>
-        <v>101073</v>
+        <v>526001</v>
       </c>
       <c r="G10" s="20">
         <f>$F73</f>
-        <v>351517</v>
+        <v>2028101</v>
       </c>
       <c r="H10" s="20">
         <f>$G74</f>
-        <v>623255</v>
+        <v>4131253</v>
       </c>
       <c r="I10" s="20">
         <f>$G73</f>
-        <v>2464043</v>
+        <v>16066549</v>
       </c>
       <c r="J10" s="20">
         <f>$H74</f>
-        <v>19758177</v>
+        <v>131956585</v>
       </c>
       <c r="K10" s="20">
         <f>$H73</f>
-        <v>69799382</v>
+        <v>453102518</v>
       </c>
       <c r="L10" s="20">
         <f>$I74</f>
-        <v>8187959975</v>
+        <v>50877342793</v>
       </c>
       <c r="M10" s="20">
         <f>$I73</f>
-        <v>35034581210</v>
+        <v>185040293322</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="P10" s="22">
         <f>F10/4096</f>
-        <v>24.676025390625</v>
+        <v>128.418212890625</v>
       </c>
       <c r="Q10" s="22">
         <f>G10/4096</f>
-        <v>85.819580078125</v>
+        <v>495.141845703125</v>
       </c>
       <c r="R10" s="22">
         <f>H10/32768</f>
-        <v>19.020233154296875</v>
+        <v>126.07583618164062</v>
       </c>
       <c r="S10" s="22">
         <f>I10/32768</f>
-        <v>75.196624755859375</v>
+        <v>490.31216430664062</v>
       </c>
       <c r="T10" s="22">
         <f>J10/(1048576)</f>
-        <v>18.842865943908691</v>
+        <v>125.84360599517822</v>
       </c>
       <c r="U10" s="22">
         <f>K10/(1048576)</f>
-        <v>66.565877914428711</v>
+        <v>432.11223411560059</v>
       </c>
       <c r="V10" s="22">
         <f>L10/1073741824</f>
-        <v>7.6256319647654891</v>
+        <v>47.383217879571021</v>
       </c>
       <c r="W10" s="22">
         <f>M10/1073741824</f>
-        <v>32.628496373072267</v>
+        <v>172.33220238424838</v>
       </c>
     </row>
     <row r="11" spans="4:23" x14ac:dyDescent="0.25">
@@ -1595,70 +1595,70 @@
       </c>
       <c r="F11" s="19">
         <f>$F76</f>
-        <v>100024</v>
+        <v>534396</v>
       </c>
       <c r="G11" s="19">
         <f>$F75</f>
-        <v>239732</v>
+        <v>1338100</v>
       </c>
       <c r="H11" s="19">
         <f>$G76</f>
-        <v>632427</v>
+        <v>4197243</v>
       </c>
       <c r="I11" s="19">
         <f>$G75</f>
-        <v>1569142</v>
+        <v>10557584</v>
       </c>
       <c r="J11" s="19">
         <f>$H76</f>
-        <v>15939975</v>
+        <v>105399429</v>
       </c>
       <c r="K11" s="19">
         <f>$H75</f>
-        <v>54608816</v>
+        <v>370207648</v>
       </c>
       <c r="L11" s="19">
         <f>$I76</f>
-        <v>15613826747</v>
+        <v>102893195175</v>
       </c>
       <c r="M11" s="19">
         <f>$I75</f>
-        <v>39589765996</v>
+        <v>265044959524</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" ref="P11:P25" si="0">F11/4096</f>
-        <v>24.419921875</v>
+        <v>130.4677734375</v>
       </c>
       <c r="Q11" s="22">
         <f t="shared" ref="Q11:Q25" si="1">G11/4096</f>
-        <v>58.5283203125</v>
+        <v>326.6845703125</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" ref="R11:S25" si="2">H11/32768</f>
-        <v>19.300140380859375</v>
+        <v>128.08969116210937</v>
       </c>
       <c r="S11" s="22">
         <f t="shared" si="2"/>
-        <v>47.88641357421875</v>
+        <v>322.19189453125</v>
       </c>
       <c r="T11" s="22">
         <f t="shared" ref="T11:U25" si="3">J11/(1048576)</f>
-        <v>15.201544761657715</v>
+        <v>100.51672840118408</v>
       </c>
       <c r="U11" s="22">
         <f t="shared" si="3"/>
-        <v>52.079025268554687</v>
+        <v>353.05752563476562</v>
       </c>
       <c r="V11" s="22">
         <f t="shared" ref="V11:W25" si="4">L11/1073741824</f>
-        <v>14.541509325616062</v>
+        <v>95.826755440793931</v>
       </c>
       <c r="W11" s="22">
         <f t="shared" si="4"/>
-        <v>36.870842795819044</v>
+        <v>246.84235409274697</v>
       </c>
     </row>
     <row r="12" spans="4:23" x14ac:dyDescent="0.25">
@@ -1667,28 +1667,28 @@
       </c>
       <c r="F12" s="19">
         <f>$F77</f>
-        <v>0</v>
+        <v>805237</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H12" s="19">
         <f>$G77</f>
-        <v>0</v>
+        <v>6295615</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="19">
         <f>$H77</f>
-        <v>0</v>
+        <v>200966872</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="19">
         <f>$I77</f>
-        <v>0</v>
+        <v>205780213978</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>94</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="P12" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196.591064453125</v>
       </c>
       <c r="Q12" s="36" t="e">
         <f t="shared" si="1"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>192.12692260742187</v>
       </c>
       <c r="S12" s="36" t="e">
         <f t="shared" ref="S12" si="5">I12/4096</f>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="T12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>191.65694427490234</v>
       </c>
       <c r="U12" s="36" t="e">
         <f t="shared" ref="U12" si="6">K12/4096</f>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="V12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>191.64775868691504</v>
       </c>
       <c r="W12" s="36" t="e">
         <f t="shared" ref="W12" si="7">M12/4096</f>
@@ -1735,70 +1735,70 @@
       </c>
       <c r="F13" s="21">
         <f>$F79</f>
-        <v>87581</v>
+        <v>505999</v>
       </c>
       <c r="G13" s="19">
         <f>$F78</f>
-        <v>167009</v>
+        <v>452301</v>
       </c>
       <c r="H13" s="21">
         <f>$G79</f>
-        <v>537779</v>
+        <v>3902353</v>
       </c>
       <c r="I13" s="19">
         <f>$G78</f>
-        <v>980377</v>
+        <v>3541767</v>
       </c>
       <c r="J13" s="21">
         <f>$H79</f>
-        <v>17051851</v>
+        <v>124375020</v>
       </c>
       <c r="K13" s="19">
         <f>$H78</f>
-        <v>31107512</v>
+        <v>113078385</v>
       </c>
       <c r="L13" s="21">
         <f>$I79</f>
-        <v>17453082629</v>
+        <v>127350462650</v>
       </c>
       <c r="M13" s="19">
         <f>$I78</f>
-        <v>31824618980</v>
+        <v>115786419927</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P13" s="36">
         <f t="shared" si="0"/>
-        <v>21.382080078125</v>
+        <v>123.534912109375</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="1"/>
-        <v>40.773681640625</v>
+        <v>110.425048828125</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="2"/>
-        <v>16.411712646484375</v>
+        <v>119.09036254882812</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="2"/>
-        <v>29.918731689453125</v>
+        <v>108.08615112304687</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="3"/>
-        <v>16.26191234588623</v>
+        <v>118.61326217651367</v>
       </c>
       <c r="U13" s="36">
         <f t="shared" si="3"/>
-        <v>29.666435241699219</v>
+        <v>107.83995151519775</v>
       </c>
       <c r="V13" s="36">
         <f t="shared" si="4"/>
-        <v>16.254449849016964</v>
+        <v>118.60436075367033</v>
       </c>
       <c r="W13" s="36">
         <f t="shared" si="4"/>
-        <v>29.638986084610224</v>
+        <v>107.83450671192259</v>
       </c>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.25">
@@ -1807,70 +1807,70 @@
       </c>
       <c r="F14" s="21">
         <f>$F81</f>
-        <v>62781</v>
+        <v>433263</v>
       </c>
       <c r="G14" s="19">
         <f>$F80</f>
-        <v>118978</v>
+        <v>275342</v>
       </c>
       <c r="H14" s="21">
         <f>$G81</f>
-        <v>336881</v>
+        <v>2452109</v>
       </c>
       <c r="I14" s="19">
         <f>$G80</f>
-        <v>629049</v>
+        <v>2131523</v>
       </c>
       <c r="J14" s="21">
         <f>$H81</f>
-        <v>10612683</v>
+        <v>74139614</v>
       </c>
       <c r="K14" s="19">
         <f>$H80</f>
-        <v>19871970</v>
+        <v>67957847</v>
       </c>
       <c r="L14" s="21">
         <f>$I81</f>
-        <v>10855165373</v>
+        <v>75780458408</v>
       </c>
       <c r="M14" s="19">
         <f>$I80</f>
-        <v>20329005024</v>
+        <v>69583882055</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="0"/>
-        <v>15.327392578125</v>
+        <v>105.777099609375</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="1"/>
-        <v>29.04736328125</v>
+        <v>67.22216796875</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="2"/>
-        <v>10.280792236328125</v>
+        <v>74.832427978515625</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="2"/>
-        <v>19.197052001953125</v>
+        <v>65.048919677734375</v>
       </c>
       <c r="T14" s="22">
         <f t="shared" si="3"/>
-        <v>10.12104320526123</v>
+        <v>70.705045700073242</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="3"/>
-        <v>18.951387405395508</v>
+        <v>64.809653282165527</v>
       </c>
       <c r="V14" s="22">
         <f t="shared" si="4"/>
-        <v>10.109660563059151</v>
+        <v>70.576051630079746</v>
       </c>
       <c r="W14" s="22">
         <f t="shared" si="4"/>
-        <v>18.932861298322678</v>
+        <v>64.805040187202394</v>
       </c>
     </row>
     <row r="15" spans="4:23" x14ac:dyDescent="0.25">
@@ -1879,70 +1879,70 @@
       </c>
       <c r="F15" s="21">
         <f>$F83</f>
-        <v>64658</v>
+        <v>719327</v>
       </c>
       <c r="G15" s="19">
         <f>$F82</f>
-        <v>208569</v>
+        <v>277258</v>
       </c>
       <c r="H15" s="21">
         <f>$G83</f>
-        <v>335861</v>
+        <v>2738563</v>
       </c>
       <c r="I15" s="19">
         <f>$G82</f>
-        <v>516961</v>
+        <v>2133457</v>
       </c>
       <c r="J15" s="21">
         <f>$H83</f>
-        <v>10619587</v>
+        <v>74432290</v>
       </c>
       <c r="K15" s="19">
         <f>$H82</f>
-        <v>12786356</v>
+        <v>67960583</v>
       </c>
       <c r="L15" s="21">
         <f>$I83</f>
-        <v>10855520111</v>
+        <v>75781661886</v>
       </c>
       <c r="M15" s="19">
         <f>$I82</f>
-        <v>12971830966</v>
+        <v>69583888981</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" si="0"/>
-        <v>15.78564453125</v>
+        <v>175.616943359375</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="1"/>
-        <v>50.920166015625</v>
+        <v>67.68994140625</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="2"/>
-        <v>10.249664306640625</v>
+        <v>83.574310302734375</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="2"/>
-        <v>15.776397705078125</v>
+        <v>65.107940673828125</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="3"/>
-        <v>10.127627372741699</v>
+        <v>70.984163284301758</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="3"/>
-        <v>12.194019317626953</v>
+        <v>64.812262535095215</v>
       </c>
       <c r="V15" s="22">
         <f t="shared" si="4"/>
-        <v>10.109990938566625</v>
+        <v>70.577172456309199</v>
       </c>
       <c r="W15" s="22">
         <f t="shared" si="4"/>
-        <v>12.08095901273191</v>
+        <v>64.805046637542546</v>
       </c>
     </row>
     <row r="16" spans="4:23" x14ac:dyDescent="0.25">
@@ -1951,70 +1951,70 @@
       </c>
       <c r="F16" s="21">
         <f>$F85</f>
-        <v>68694</v>
+        <v>535461</v>
       </c>
       <c r="G16" s="19">
         <f>$F84</f>
-        <v>210327</v>
+        <v>282456</v>
       </c>
       <c r="H16" s="21">
         <f>$G85</f>
-        <v>339598</v>
+        <v>2153945</v>
       </c>
       <c r="I16" s="19">
         <f>$G84</f>
-        <v>804187</v>
+        <v>2137865</v>
       </c>
       <c r="J16" s="21">
         <f>$H85</f>
-        <v>10626147</v>
+        <v>59616250</v>
       </c>
       <c r="K16" s="19">
         <f>$H84</f>
-        <v>13080730</v>
+        <v>67968701</v>
       </c>
       <c r="L16" s="21">
         <f>$I85</f>
-        <v>10857908173</v>
+        <v>60741742688</v>
       </c>
       <c r="M16" s="19">
         <f>$I84</f>
-        <v>12967053680</v>
+        <v>69587477645</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="22">
         <f t="shared" si="0"/>
-        <v>16.77099609375</v>
+        <v>130.727783203125</v>
       </c>
       <c r="Q16" s="22">
         <f t="shared" si="1"/>
-        <v>51.349365234375</v>
+        <v>68.958984375</v>
       </c>
       <c r="R16" s="22">
         <f t="shared" si="2"/>
-        <v>10.36370849609375</v>
+        <v>65.733184814453125</v>
       </c>
       <c r="S16" s="22">
         <f t="shared" si="2"/>
-        <v>24.541839599609375</v>
+        <v>65.242462158203125</v>
       </c>
       <c r="T16" s="22">
         <f t="shared" si="3"/>
-        <v>10.133883476257324</v>
+        <v>56.854486465454102</v>
       </c>
       <c r="U16" s="22">
         <f t="shared" si="3"/>
-        <v>12.474756240844727</v>
+        <v>64.820004463195801</v>
       </c>
       <c r="V16" s="22">
         <f t="shared" si="4"/>
-        <v>10.112214994616807</v>
+        <v>56.570156186819077</v>
       </c>
       <c r="W16" s="22">
         <f t="shared" si="4"/>
-        <v>12.076509818434715</v>
+        <v>64.808388841338456</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2023,70 +2023,70 @@
       </c>
       <c r="F17" s="21">
         <f>$F87</f>
-        <v>67247</v>
+        <v>1375380</v>
       </c>
       <c r="G17" s="19">
         <f>$F86</f>
-        <v>202807</v>
+        <v>279591</v>
       </c>
       <c r="H17" s="21">
         <f>$G87</f>
-        <v>339329</v>
+        <v>10852092</v>
       </c>
       <c r="I17" s="19">
         <f>$G86</f>
-        <v>611421</v>
+        <v>2135965</v>
       </c>
       <c r="J17" s="21">
         <f>$H87</f>
-        <v>10606587</v>
+        <v>130700756</v>
       </c>
       <c r="K17" s="19">
         <f>$H86</f>
-        <v>10821342</v>
+        <v>67965785</v>
       </c>
       <c r="L17" s="21">
         <f>$I87</f>
-        <v>10857283051</v>
+        <v>72671457985</v>
       </c>
       <c r="M17" s="19">
         <f>$I86</f>
-        <v>10817571704</v>
+        <v>69587700911</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="0"/>
-        <v>16.417724609375</v>
+        <v>335.7861328125</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="1"/>
-        <v>49.513427734375</v>
+        <v>68.259521484375</v>
       </c>
       <c r="R17" s="22">
         <f t="shared" si="2"/>
-        <v>10.355499267578125</v>
+        <v>331.1795654296875</v>
       </c>
       <c r="S17" s="22">
         <f t="shared" si="2"/>
-        <v>18.659088134765625</v>
+        <v>65.184478759765625</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="3"/>
-        <v>10.115229606628418</v>
+        <v>124.64595413208008</v>
       </c>
       <c r="U17" s="22">
         <f t="shared" si="3"/>
-        <v>10.320035934448242</v>
+        <v>64.81722354888916</v>
       </c>
       <c r="V17" s="22">
         <f t="shared" si="4"/>
-        <v>10.111632804386318</v>
+        <v>67.680569351650774</v>
       </c>
       <c r="W17" s="22">
         <f t="shared" si="4"/>
-        <v>10.074648730456829</v>
+        <v>64.8085967740044</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2095,70 +2095,70 @@
       </c>
       <c r="F18" s="21">
         <f>$F89</f>
-        <v>89072</v>
+        <v>1374822</v>
       </c>
       <c r="G18" s="19">
         <f>$F88</f>
-        <v>249334</v>
+        <v>451586</v>
       </c>
       <c r="H18" s="21">
         <f>$G89</f>
-        <v>539377</v>
+        <v>10851932</v>
       </c>
       <c r="I18" s="19">
         <f>$G88</f>
-        <v>1617860</v>
+        <v>3541201</v>
       </c>
       <c r="J18" s="21">
         <f>$H89</f>
-        <v>17052907</v>
+        <v>171272462</v>
       </c>
       <c r="K18" s="19">
         <f>$H88</f>
-        <v>20467122</v>
+        <v>113074781</v>
       </c>
       <c r="L18" s="21">
         <f>$I89</f>
-        <v>17453614277</v>
+        <v>72708604496</v>
       </c>
       <c r="M18" s="19">
         <f>$I88</f>
-        <v>12057442448</v>
+        <v>115785134943</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="0"/>
-        <v>21.74609375</v>
+        <v>335.64990234375</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="1"/>
-        <v>60.87255859375</v>
+        <v>110.25048828125</v>
       </c>
       <c r="R18" s="22">
         <f t="shared" si="2"/>
-        <v>16.460479736328125</v>
+        <v>331.1746826171875</v>
       </c>
       <c r="S18" s="22">
         <f t="shared" si="2"/>
-        <v>49.3731689453125</v>
+        <v>108.06887817382812</v>
       </c>
       <c r="T18" s="22">
         <f t="shared" si="3"/>
-        <v>16.262919425964355</v>
+        <v>163.33814811706543</v>
       </c>
       <c r="U18" s="22">
         <f t="shared" si="3"/>
-        <v>19.51896858215332</v>
+        <v>107.83651447296143</v>
       </c>
       <c r="V18" s="22">
         <f t="shared" si="4"/>
-        <v>16.254944984801114</v>
+        <v>67.715164735913277</v>
       </c>
       <c r="W18" s="22">
         <f t="shared" si="4"/>
-        <v>11.229368343949318</v>
+        <v>107.83330997731537</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2167,70 +2167,70 @@
       </c>
       <c r="F19" s="21">
         <f>$F91</f>
-        <v>90466</v>
+        <v>1370774</v>
       </c>
       <c r="G19" s="19">
         <f>$F90</f>
-        <v>245222</v>
+        <v>451602</v>
       </c>
       <c r="H19" s="21">
         <f>$G91</f>
-        <v>539229</v>
+        <v>10819476</v>
       </c>
       <c r="I19" s="19">
         <f>$G90</f>
-        <v>1614320</v>
+        <v>3541107</v>
       </c>
       <c r="J19" s="21">
         <f>$H91</f>
-        <v>17057757</v>
+        <v>150695040</v>
       </c>
       <c r="K19" s="19">
         <f>$H90</f>
-        <v>26249636</v>
+        <v>113075585</v>
       </c>
       <c r="L19" s="21">
         <f>$I91</f>
-        <v>17455418649</v>
+        <v>70523008922</v>
       </c>
       <c r="M19" s="19">
         <f>$I90</f>
-        <v>12059258294</v>
+        <v>115785767331</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="22">
         <f t="shared" si="0"/>
-        <v>22.08642578125</v>
+        <v>334.66162109375</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="1"/>
-        <v>59.86865234375</v>
+        <v>110.25439453125</v>
       </c>
       <c r="R19" s="22">
         <f t="shared" si="2"/>
-        <v>16.455963134765625</v>
+        <v>330.1842041015625</v>
       </c>
       <c r="S19" s="22">
         <f t="shared" si="2"/>
-        <v>49.26513671875</v>
+        <v>108.06600952148437</v>
       </c>
       <c r="T19" s="22">
         <f t="shared" si="3"/>
-        <v>16.267544746398926</v>
+        <v>143.7139892578125</v>
       </c>
       <c r="U19" s="22">
         <f t="shared" si="3"/>
-        <v>25.033603668212891</v>
+        <v>107.83728122711182</v>
       </c>
       <c r="V19" s="22">
         <f t="shared" si="4"/>
-        <v>16.256625437177718</v>
+        <v>65.679670238867402</v>
       </c>
       <c r="W19" s="22">
         <f t="shared" si="4"/>
-        <v>11.231059482321143</v>
+        <v>107.83389893453568</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2239,70 +2239,70 @@
       </c>
       <c r="F20" s="21">
         <f>$F93</f>
-        <v>117326</v>
+        <v>2450953</v>
       </c>
       <c r="G20" s="19">
         <f>$F92</f>
-        <v>243684</v>
+        <v>637266</v>
       </c>
       <c r="H20" s="21">
         <f>$G93</f>
-        <v>750239</v>
+        <v>19454989</v>
       </c>
       <c r="I20" s="19">
         <f>$G92</f>
-        <v>1613500</v>
+        <v>5021505</v>
       </c>
       <c r="J20" s="21">
         <f>$H93</f>
-        <v>23870359</v>
+        <v>260380784</v>
       </c>
       <c r="K20" s="19">
         <f>$H92</f>
-        <v>23308104</v>
+        <v>160429757</v>
       </c>
       <c r="L20" s="21">
         <f>$I93</f>
-        <v>24430651045</v>
+        <v>60411099852</v>
       </c>
       <c r="M20" s="19">
         <f>$I92</f>
-        <v>12057435478</v>
+        <v>114712009175</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="0"/>
-        <v>28.64404296875</v>
+        <v>598.377197265625</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="1"/>
-        <v>59.4931640625</v>
+        <v>155.58251953125</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="2"/>
-        <v>22.895477294921875</v>
+        <v>593.71914672851562</v>
       </c>
       <c r="S20" s="22">
         <f t="shared" si="2"/>
-        <v>49.2401123046875</v>
+        <v>153.24417114257812</v>
       </c>
       <c r="T20" s="22">
         <f t="shared" si="3"/>
-        <v>22.764548301696777</v>
+        <v>248.31846618652344</v>
       </c>
       <c r="U20" s="22">
         <f t="shared" si="3"/>
-        <v>22.228340148925781</v>
+        <v>152.9977388381958</v>
       </c>
       <c r="V20" s="22">
         <f t="shared" si="4"/>
-        <v>22.752816830761731</v>
+        <v>56.262221049517393</v>
       </c>
       <c r="W20" s="22">
         <f t="shared" si="4"/>
-        <v>11.229361852630973</v>
+        <v>106.83388372417539</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2311,70 +2311,70 @@
       </c>
       <c r="F21" s="21">
         <f>$F95</f>
-        <v>154101</v>
+        <v>599098</v>
       </c>
       <c r="G21" s="19">
         <f>$F94</f>
-        <v>399585</v>
+        <v>894823</v>
       </c>
       <c r="H21" s="21">
         <f>$G95</f>
-        <v>1046087</v>
+        <v>4649890</v>
       </c>
       <c r="I21" s="19">
         <f>$G94</f>
-        <v>2844841</v>
+        <v>7081373</v>
       </c>
       <c r="J21" s="21">
         <f>$H95</f>
-        <v>13372015</v>
+        <v>148317204</v>
       </c>
       <c r="K21" s="19">
         <f>$H94</f>
-        <v>40597740</v>
+        <v>86282945</v>
       </c>
       <c r="L21" s="21">
         <f>$I95</f>
-        <v>8867672097</v>
+        <v>115543181756</v>
       </c>
       <c r="M21" s="19">
         <f>$I94</f>
-        <v>10433186166</v>
+        <v>116622723949</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="0"/>
-        <v>37.622314453125</v>
+        <v>146.26416015625</v>
       </c>
       <c r="Q21" s="22">
         <f t="shared" si="1"/>
-        <v>97.554931640625</v>
+        <v>218.462646484375</v>
       </c>
       <c r="R21" s="22">
         <f t="shared" si="2"/>
-        <v>31.924041748046875</v>
+        <v>141.90338134765625</v>
       </c>
       <c r="S21" s="22">
         <f t="shared" si="2"/>
-        <v>86.817657470703125</v>
+        <v>216.10635375976562</v>
       </c>
       <c r="T21" s="22">
         <f t="shared" si="3"/>
-        <v>12.752547264099121</v>
+        <v>141.44630813598633</v>
       </c>
       <c r="U21" s="22">
         <f t="shared" si="3"/>
-        <v>38.717021942138672</v>
+        <v>82.285828590393066</v>
       </c>
       <c r="V21" s="22">
         <f t="shared" si="4"/>
-        <v>8.2586632082238793</v>
+        <v>107.60797351226211</v>
       </c>
       <c r="W21" s="22">
         <f t="shared" si="4"/>
-        <v>9.7166618015617132</v>
+        <v>108.61337552685291</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2383,70 +2383,70 @@
       </c>
       <c r="F22" s="21">
         <f>$F97</f>
-        <v>60933</v>
+        <v>592091</v>
       </c>
       <c r="G22" s="19">
         <f>$F96</f>
-        <v>134787</v>
+        <v>254979</v>
       </c>
       <c r="H22" s="21">
         <f>$G97</f>
-        <v>315235</v>
+        <v>4591205</v>
       </c>
       <c r="I22" s="19">
         <f>$G96</f>
-        <v>728335</v>
+        <v>1967773</v>
       </c>
       <c r="J22" s="21">
         <f>$H97</f>
-        <v>9866947</v>
+        <v>146409086</v>
       </c>
       <c r="K22" s="19">
         <f>$H96</f>
-        <v>22986412</v>
+        <v>62714829</v>
       </c>
       <c r="L22" s="21">
         <f>$I97</f>
-        <v>10088606389</v>
+        <v>149918956206</v>
       </c>
       <c r="M22" s="19">
         <f>$I96</f>
-        <v>23493624984</v>
+        <v>64215292219</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="0"/>
-        <v>14.876220703125</v>
+        <v>144.553466796875</v>
       </c>
       <c r="Q22" s="22">
         <f t="shared" si="1"/>
-        <v>32.906982421875</v>
+        <v>62.250732421875</v>
       </c>
       <c r="R22" s="22">
         <f t="shared" si="2"/>
-        <v>9.620208740234375</v>
+        <v>140.11245727539062</v>
       </c>
       <c r="S22" s="22">
         <f t="shared" si="2"/>
-        <v>22.227020263671875</v>
+        <v>60.051666259765625</v>
       </c>
       <c r="T22" s="22">
         <f t="shared" si="3"/>
-        <v>9.4098539352416992</v>
+        <v>139.62658500671387</v>
       </c>
       <c r="U22" s="22">
         <f t="shared" si="3"/>
-        <v>21.921550750732422</v>
+        <v>59.809521675109863</v>
       </c>
       <c r="V22" s="22">
         <f t="shared" si="4"/>
-        <v>9.3957468764856458</v>
+        <v>139.62290827743709</v>
       </c>
       <c r="W22" s="22">
         <f t="shared" si="4"/>
-        <v>21.88014330714941</v>
+        <v>59.805151279084384</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2455,70 +2455,70 @@
       </c>
       <c r="F23" s="21">
         <f>$F99</f>
-        <v>65932</v>
+        <v>784512</v>
       </c>
       <c r="G23" s="19">
         <f>$F98</f>
-        <v>134859</v>
+        <v>300658</v>
       </c>
       <c r="H23" s="21">
         <f>$G99</f>
-        <v>365859</v>
+        <v>6131412</v>
       </c>
       <c r="I23" s="19">
         <f>$G98</f>
-        <v>729997</v>
+        <v>2328435</v>
       </c>
       <c r="J23" s="21">
         <f>$H99</f>
-        <v>11509221</v>
+        <v>159743414</v>
       </c>
       <c r="K23" s="19">
         <f>$H98</f>
-        <v>23019656</v>
+        <v>74255711</v>
       </c>
       <c r="L23" s="21">
         <f>$I99</f>
-        <v>11777824837</v>
+        <v>160665048774</v>
       </c>
       <c r="M23" s="19">
         <f>$I98</f>
-        <v>23549666330</v>
+        <v>76032919845</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="0"/>
-        <v>16.0966796875</v>
+        <v>191.53125</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="1"/>
-        <v>32.924560546875</v>
+        <v>73.40283203125</v>
       </c>
       <c r="R23" s="22">
         <f t="shared" si="2"/>
-        <v>11.165130615234375</v>
+        <v>187.1158447265625</v>
       </c>
       <c r="S23" s="22">
         <f t="shared" si="2"/>
-        <v>22.277740478515625</v>
+        <v>71.058197021484375</v>
       </c>
       <c r="T23" s="22">
         <f t="shared" si="3"/>
-        <v>10.976048469543457</v>
+        <v>152.34319114685059</v>
       </c>
       <c r="U23" s="22">
         <f t="shared" si="3"/>
-        <v>21.953254699707031</v>
+        <v>70.815764427185059</v>
       </c>
       <c r="V23" s="22">
         <f t="shared" si="4"/>
-        <v>10.968954150564969</v>
+        <v>149.63098687492311</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="4"/>
-        <v>21.932335877791047</v>
+        <v>70.81117466557771</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2527,78 +2527,78 @@
       </c>
       <c r="F24" s="21">
         <f>$F101</f>
-        <v>85181</v>
+        <v>640679</v>
       </c>
       <c r="G24" s="19">
         <f>$F100</f>
-        <v>167260</v>
+        <v>426921</v>
       </c>
       <c r="H24" s="21">
         <f>$G101</f>
-        <v>509901</v>
+        <v>4984691</v>
       </c>
       <c r="I24" s="19">
         <f>$G100</f>
-        <v>960678</v>
+        <v>3344663</v>
       </c>
       <c r="J24" s="21">
         <f>$H101</f>
-        <v>16150663</v>
+        <v>159001026</v>
       </c>
       <c r="K24" s="19">
         <f>$H100</f>
-        <v>25193194</v>
+        <v>106781543</v>
       </c>
       <c r="L24" s="21">
         <f>$I101</f>
-        <v>16531530201</v>
+        <v>162811616124</v>
       </c>
       <c r="M24" s="19">
         <f>$I100</f>
-        <v>25379239884</v>
+        <v>109349075775</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="0"/>
-        <v>20.796142578125</v>
+        <v>156.415771484375</v>
       </c>
       <c r="Q24" s="22">
         <f t="shared" si="1"/>
-        <v>40.8349609375</v>
+        <v>104.228759765625</v>
       </c>
       <c r="R24" s="22">
         <f t="shared" si="2"/>
-        <v>15.560943603515625</v>
+        <v>152.12069702148437</v>
       </c>
       <c r="S24" s="22">
         <f t="shared" si="2"/>
-        <v>29.31756591796875</v>
+        <v>102.07101440429687</v>
       </c>
       <c r="T24" s="22">
         <f t="shared" si="3"/>
-        <v>15.402472496032715</v>
+        <v>151.63519477844238</v>
       </c>
       <c r="U24" s="22">
         <f t="shared" si="3"/>
-        <v>24.026102066040039</v>
+        <v>101.83481502532959</v>
       </c>
       <c r="V24" s="22">
         <f t="shared" si="4"/>
-        <v>15.396187269128859</v>
+        <v>151.63013350591063</v>
       </c>
       <c r="W24" s="22">
         <f t="shared" si="4"/>
-        <v>23.636259030550718</v>
+        <v>101.83926278259605</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G25" s="19">
         <f>$F102</f>
-        <v>138351</v>
+        <v>316290</v>
       </c>
       <c r="H25" s="21">
         <f>$G103</f>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="I25" s="19">
         <f>$G102</f>
-        <v>779207</v>
+        <v>2459329</v>
       </c>
       <c r="J25" s="21">
         <f>$H103</f>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="K25" s="19">
         <f>$H102</f>
-        <v>24530694</v>
+        <v>78451805</v>
       </c>
       <c r="L25" s="21">
         <f>$I103</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="M25" s="19">
         <f>$I102</f>
-        <v>25089344962</v>
+        <v>80334309047</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>31</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="Q25" s="22">
         <f t="shared" si="1"/>
-        <v>33.777099609375</v>
+        <v>77.21923828125</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="2"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="S25" s="22">
         <f t="shared" si="2"/>
-        <v>23.779510498046875</v>
+        <v>75.052764892578125</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="3"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="U25" s="22">
         <f t="shared" si="3"/>
-        <v>23.394292831420898</v>
+        <v>74.817471504211426</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="4"/>
@@ -2667,13 +2667,13 @@
       </c>
       <c r="W25" s="22">
         <f t="shared" si="4"/>
-        <v>23.366273345425725</v>
+        <v>74.817155531607568</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2694,10 +2694,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="E27" s="43" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="E27" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -2728,7 +2728,7 @@
       <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -2761,22 +2761,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -2801,16 +2801,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2850,17 +2850,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2878,35 +2878,35 @@
       </c>
       <c r="F32" s="29">
         <f>($C$36*F10)/10^9</f>
-        <v>2.5545190020000001E-4</v>
+        <v>1.3294149274000002E-3</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ref="G32:M32" si="8">($C$36*G10)/10^9</f>
-        <v>8.8842406579999996E-4</v>
+        <v>5.1258224674000001E-3</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" si="8"/>
-        <v>1.5752146870000002E-3</v>
+        <v>1.04413288322E-2</v>
       </c>
       <c r="I32" s="29">
         <f t="shared" si="8"/>
-        <v>6.2276222782000007E-3</v>
+        <v>4.0606595942600007E-2</v>
       </c>
       <c r="J32" s="29">
         <f t="shared" si="8"/>
-        <v>4.9936816549799999E-2</v>
+        <v>0.333507072929</v>
       </c>
       <c r="K32" s="29">
         <f t="shared" si="8"/>
-        <v>0.17641095806679999</v>
+        <v>1.1451713039932001</v>
       </c>
       <c r="L32" s="29">
         <f t="shared" si="8"/>
-        <v>20.694250040815003</v>
+        <v>128.5873961750282</v>
       </c>
       <c r="M32" s="29">
         <f t="shared" si="8"/>
-        <v>88.546400550154004</v>
+        <v>467.67083734202282</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>19</v>
@@ -2928,35 +2928,35 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ref="F33:M33" si="9">($C$36*F11)/10^9</f>
-        <v>2.5280065760000003E-4</v>
+        <v>1.3506324503999999E-3</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="9"/>
-        <v>6.0589865680000003E-4</v>
+        <v>3.38191394E-3</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="9"/>
-        <v>1.5983959998E-3</v>
+        <v>1.06081119582E-2</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" si="9"/>
-        <v>3.9658494908000001E-3</v>
+        <v>2.66832378016E-2</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="9"/>
-        <v>4.0286692815000004E-2</v>
+        <v>0.26638651685460002</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="9"/>
-        <v>0.13801832155839999</v>
+        <v>0.93566280955519998</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="9"/>
-        <v>39.462385720367799</v>
+        <v>260.05226148529499</v>
       </c>
       <c r="M33" s="29">
         <f t="shared" si="9"/>
-        <v>100.05917457829041</v>
+        <v>669.8746307009576</v>
       </c>
       <c r="O33" s="23" t="s">
         <v>20</v>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ref="F34:M35" si="10">($C$36*F12)/10^9</f>
-        <v>0</v>
+        <v>2.0351559938000001E-3</v>
       </c>
       <c r="G34" s="29" t="e">
         <f t="shared" si="10"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H34" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.5911537351E-2</v>
       </c>
       <c r="I34" s="29" t="e">
         <f t="shared" si="10"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J34" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5079236722928</v>
       </c>
       <c r="K34" s="29" t="e">
         <f t="shared" si="10"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L34" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>520.08891280799719</v>
       </c>
       <c r="M34" s="29" t="e">
         <f t="shared" si="10"/>
@@ -3012,35 +3012,35 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" si="10"/>
-        <v>2.213522194E-4</v>
+        <v>1.2788618726000001E-3</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="10"/>
-        <v>4.220985466E-4</v>
+        <v>1.1431455474E-3</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="10"/>
-        <v>1.3591826445999999E-3</v>
+        <v>9.8628069722000011E-3</v>
       </c>
       <c r="I35" s="29">
         <f t="shared" si="10"/>
-        <v>2.4778048298000001E-3</v>
+        <v>8.9514619157999992E-3</v>
       </c>
       <c r="J35" s="29">
         <f t="shared" si="10"/>
-        <v>4.3096848217400001E-2</v>
+        <v>0.31434542554800005</v>
       </c>
       <c r="K35" s="29">
         <f t="shared" si="10"/>
-        <v>7.8621125828800001E-2</v>
+        <v>0.28579431024900004</v>
       </c>
       <c r="L35" s="29">
         <f t="shared" si="10"/>
-        <v>44.110921036534599</v>
+        <v>321.86555930161001</v>
       </c>
       <c r="M35" s="29">
         <f t="shared" si="10"/>
-        <v>80.433542010052008</v>
+        <v>292.6385977234998</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>34</v>
@@ -3060,35 +3060,35 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ref="F36:M36" si="11">($C$36*F14)/10^9</f>
-        <v>1.5867269940000002E-4</v>
+        <v>1.0950289062000001E-3</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="11"/>
-        <v>3.0070499719999998E-4</v>
+        <v>6.9589937080000001E-4</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="11"/>
-        <v>8.5143303940000005E-4</v>
+        <v>6.1974602865999999E-3</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" si="11"/>
-        <v>1.5898584426E-3</v>
+        <v>5.3872112301999999E-3</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="11"/>
-        <v>2.6822495014200001E-2</v>
+        <v>0.18738046042360001</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="11"/>
-        <v>5.0224416978000001E-2</v>
+        <v>0.1717566625078</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="11"/>
-        <v>27.435344963720201</v>
+        <v>191.52753058037922</v>
       </c>
       <c r="M36" s="29">
         <f t="shared" si="11"/>
-        <v>51.379527297657603</v>
+        <v>175.866303505807</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3097,35 +3097,35 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ref="F37:M37" si="12">($C$36*F15)/10^9</f>
-        <v>1.6341662919999999E-4</v>
+        <v>1.8180270598000001E-3</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" si="12"/>
-        <v>5.2713729060000001E-4</v>
+        <v>7.0074186920000012E-4</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="12"/>
-        <v>8.4885509140000001E-4</v>
+        <v>6.9214441261999998E-3</v>
       </c>
       <c r="I37" s="29">
         <f t="shared" si="12"/>
-        <v>1.3065672313999999E-3</v>
+        <v>5.3920992218000003E-3</v>
       </c>
       <c r="J37" s="29">
         <f t="shared" si="12"/>
-        <v>2.6839944183800001E-2</v>
+        <v>0.18812016974599999</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="12"/>
-        <v>3.2316236154400005E-2</v>
+        <v>0.17176357747420001</v>
       </c>
       <c r="L37" s="29">
         <f t="shared" si="12"/>
-        <v>27.436241528541402</v>
+        <v>191.53057225067641</v>
       </c>
       <c r="M37" s="29">
         <f t="shared" si="12"/>
-        <v>32.785005583468404</v>
+        <v>175.86632101057941</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3134,35 +3134,35 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ref="F38:M38" si="13">($C$36*F16)/10^9</f>
-        <v>1.736172156E-4</v>
+        <v>1.3533241314E-3</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="13"/>
-        <v>5.3158045980000008E-4</v>
+        <v>7.1387929439999998E-4</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="13"/>
-        <v>8.5829998520000001E-4</v>
+        <v>5.4438805930000006E-3</v>
       </c>
       <c r="I38" s="29">
         <f t="shared" si="13"/>
-        <v>2.0325022238000001E-3</v>
+        <v>5.4032400010000006E-3</v>
       </c>
       <c r="J38" s="29">
         <f t="shared" si="13"/>
-        <v>2.68565239278E-2</v>
+        <v>0.15067411024999999</v>
       </c>
       <c r="K38" s="29">
         <f t="shared" si="13"/>
-        <v>3.3060237002000004E-2</v>
+        <v>0.17178409490740001</v>
       </c>
       <c r="L38" s="29">
         <f t="shared" si="13"/>
-        <v>27.442277116440202</v>
+        <v>153.5186804696512</v>
       </c>
       <c r="M38" s="29">
         <f t="shared" si="13"/>
-        <v>32.772931470831999</v>
+        <v>175.87539099997298</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3171,35 +3171,35 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ref="F39:M39" si="14">($C$36*F17)/10^9</f>
-        <v>1.6996006780000002E-4</v>
+        <v>3.4761354120000001E-3</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="14"/>
-        <v>5.1257441180000004E-4</v>
+        <v>7.0663829340000003E-4</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="14"/>
-        <v>8.5762011460000008E-4</v>
+        <v>2.7427577320800003E-2</v>
       </c>
       <c r="I39" s="29">
         <f t="shared" si="14"/>
-        <v>1.5453054354E-3</v>
+        <v>5.3984379410000009E-3</v>
       </c>
       <c r="J39" s="29">
         <f t="shared" si="14"/>
-        <v>2.68070879838E-2</v>
+        <v>0.33033309071439998</v>
       </c>
       <c r="K39" s="29">
         <f t="shared" si="14"/>
-        <v>2.7349859770800001E-2</v>
+        <v>0.17177672500900001</v>
       </c>
       <c r="L39" s="29">
         <f t="shared" si="14"/>
-        <v>27.440697183097402</v>
+        <v>183.66984291128901</v>
       </c>
       <c r="M39" s="29">
         <f t="shared" si="14"/>
-        <v>27.340330724689601</v>
+        <v>175.8759552824614</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3208,35 +3208,35 @@
       </c>
       <c r="F40" s="29">
         <f t="shared" ref="F40:M40" si="15">($C$36*F18)/10^9</f>
-        <v>2.2512057279999999E-4</v>
+        <v>3.4747251227999999E-3</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="15"/>
-        <v>6.3016675160000005E-4</v>
+        <v>1.1413384564E-3</v>
       </c>
       <c r="H40" s="29">
         <f t="shared" si="15"/>
-        <v>1.3632214298E-3</v>
+        <v>2.7427172936799998E-2</v>
       </c>
       <c r="I40" s="29">
         <f t="shared" si="15"/>
-        <v>4.0889793639999998E-3</v>
+        <v>8.9500314074000015E-3</v>
       </c>
       <c r="J40" s="29">
         <f t="shared" si="15"/>
-        <v>4.30995171518E-2</v>
+        <v>0.43287402045880002</v>
       </c>
       <c r="K40" s="29">
         <f t="shared" si="15"/>
-        <v>5.1728604142800005E-2</v>
+        <v>0.28578520149940001</v>
       </c>
       <c r="L40" s="29">
         <f t="shared" si="15"/>
-        <v>44.112264723689805</v>
+        <v>183.76372700319041</v>
       </c>
       <c r="M40" s="29">
         <f t="shared" si="15"/>
-        <v>30.473980043075201</v>
+        <v>292.63535005493821</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3245,35 +3245,35 @@
       </c>
       <c r="F41" s="29">
         <f t="shared" ref="F41:M41" si="16">($C$36*F19)/10^9</f>
-        <v>2.2864376840000001E-4</v>
+        <v>3.4644942076000004E-3</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="16"/>
-        <v>6.1977408279999995E-4</v>
+        <v>1.1413788948000001E-3</v>
       </c>
       <c r="H41" s="29">
         <f t="shared" si="16"/>
-        <v>1.3628473746E-3</v>
+        <v>2.73451436424E-2</v>
       </c>
       <c r="I41" s="29">
         <f t="shared" si="16"/>
-        <v>4.0800323680000002E-3</v>
+        <v>8.9497938318000014E-3</v>
       </c>
       <c r="J41" s="29">
         <f>($C$36*J19)/10^9</f>
-        <v>4.3111775041799999E-2</v>
+        <v>0.38086664409600002</v>
       </c>
       <c r="K41" s="29">
         <f t="shared" si="16"/>
-        <v>6.6343330026399999E-2</v>
+        <v>0.28578723352899998</v>
       </c>
       <c r="L41" s="29">
         <f t="shared" si="16"/>
-        <v>44.116825093482603</v>
+        <v>178.23985274946281</v>
       </c>
       <c r="M41" s="29">
         <f t="shared" si="16"/>
-        <v>30.478569412255599</v>
+        <v>292.63694835236936</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3282,35 +3282,35 @@
       </c>
       <c r="F42" s="29">
         <f t="shared" ref="F42:M42" si="17">($C$36*F20)/10^9</f>
-        <v>2.9652973240000004E-4</v>
+        <v>6.1945386122000002E-3</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="17"/>
-        <v>6.1588694160000007E-4</v>
+        <v>1.6106260884E-3</v>
       </c>
       <c r="H42" s="29">
         <f t="shared" si="17"/>
-        <v>1.8961540486E-3</v>
+        <v>4.9170539198600004E-2</v>
       </c>
       <c r="I42" s="29">
         <f t="shared" si="17"/>
-        <v>4.0779599000000007E-3</v>
+        <v>1.2691351736999999E-2</v>
       </c>
       <c r="J42" s="29">
         <f t="shared" si="17"/>
-        <v>6.0329945336600008E-2</v>
+        <v>0.65808639348160003</v>
       </c>
       <c r="K42" s="29">
         <f t="shared" si="17"/>
-        <v>5.8908902049600004E-2</v>
+        <v>0.40547016784180001</v>
       </c>
       <c r="L42" s="29">
         <f t="shared" si="17"/>
-        <v>61.746027451133003</v>
+        <v>152.68301376594479</v>
       </c>
       <c r="M42" s="29">
         <f t="shared" si="17"/>
-        <v>30.473962427097202</v>
+        <v>289.92313198889502</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3319,35 +3319,35 @@
       </c>
       <c r="F43" s="29">
         <f t="shared" ref="F43:M43" si="18">($C$36*F21)/10^9</f>
-        <v>3.8947486739999998E-4</v>
+        <v>1.5141602852E-3</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="18"/>
-        <v>1.009911129E-3</v>
+        <v>2.2615756502000002E-3</v>
       </c>
       <c r="H43" s="29">
         <f t="shared" si="18"/>
-        <v>2.6438802838000004E-3</v>
+        <v>1.1752131985999999E-2</v>
       </c>
       <c r="I43" s="29">
         <f t="shared" si="18"/>
-        <v>7.1900511434000005E-3</v>
+        <v>1.7897462120200002E-2</v>
       </c>
       <c r="J43" s="29">
         <f t="shared" si="18"/>
-        <v>3.3796430711000004E-2</v>
+        <v>0.37485690138960004</v>
       </c>
       <c r="K43" s="29">
         <f t="shared" si="18"/>
-        <v>0.10260672807600001</v>
+        <v>0.21807151519300003</v>
       </c>
       <c r="L43" s="29">
         <f t="shared" si="18"/>
-        <v>22.412154457957801</v>
+        <v>292.02383757011444</v>
       </c>
       <c r="M43" s="29">
         <f t="shared" si="18"/>
-        <v>26.368834715948402</v>
+        <v>294.75227250870262</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3356,35 +3356,35 @@
       </c>
       <c r="F44" s="29">
         <f t="shared" ref="F44:M44" si="19">($C$36*F22)/10^9</f>
-        <v>1.5400206420000001E-4</v>
+        <v>1.4964507934000001E-3</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="19"/>
-        <v>3.4066066380000006E-4</v>
+        <v>6.444339246E-4</v>
       </c>
       <c r="H44" s="29">
         <f t="shared" si="19"/>
-        <v>7.96724939E-4</v>
+        <v>1.1603811517E-2</v>
       </c>
       <c r="I44" s="29">
         <f t="shared" si="19"/>
-        <v>1.840793879E-3</v>
+        <v>4.9733494801999997E-3</v>
       </c>
       <c r="J44" s="29">
         <f t="shared" si="19"/>
-        <v>2.49377218478E-2</v>
+        <v>0.37003432395640001</v>
       </c>
       <c r="K44" s="29">
         <f t="shared" si="19"/>
-        <v>5.8095857688799997E-2</v>
+        <v>0.15850545881459999</v>
       </c>
       <c r="L44" s="29">
         <f t="shared" si="19"/>
-        <v>25.497943787558601</v>
+        <v>378.90516991504444</v>
       </c>
       <c r="M44" s="29">
         <f t="shared" si="19"/>
-        <v>59.377787784561598</v>
+        <v>162.29772955430059</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3393,35 +3393,35 @@
       </c>
       <c r="F45" s="29">
         <f t="shared" ref="F45:M45" si="20">($C$36*F23)/10^9</f>
-        <v>1.6663653679999999E-4</v>
+        <v>1.9827756287999999E-3</v>
       </c>
       <c r="G45" s="29">
         <f t="shared" si="20"/>
-        <v>3.4084263660000004E-4</v>
+        <v>7.5988302919999999E-4</v>
       </c>
       <c r="H45" s="29">
         <f t="shared" si="20"/>
-        <v>9.2467203660000002E-4</v>
+        <v>1.5496530688799999E-2</v>
       </c>
       <c r="I45" s="29">
         <f t="shared" si="20"/>
-        <v>1.8449944178000001E-3</v>
+        <v>5.8848866190000003E-3</v>
       </c>
       <c r="J45" s="29">
         <f t="shared" si="20"/>
-        <v>2.90884051554E-2</v>
+        <v>0.40373550454360002</v>
       </c>
       <c r="K45" s="29">
         <f t="shared" si="20"/>
-        <v>5.8179878574399997E-2</v>
+        <v>0.1876738839814</v>
       </c>
       <c r="L45" s="29">
         <f t="shared" si="20"/>
-        <v>29.767274493033803</v>
+        <v>406.06484427140759</v>
       </c>
       <c r="M45" s="29">
         <f t="shared" si="20"/>
-        <v>59.519426682442003</v>
+        <v>192.16560161625301</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,35 +3430,35 @@
       </c>
       <c r="F46" s="29">
         <f t="shared" ref="F46:M46" si="21">($C$36*F24)/10^9</f>
-        <v>2.1528645940000003E-4</v>
+        <v>1.6192521045999999E-3</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="21"/>
-        <v>4.2273292399999998E-4</v>
+        <v>1.0790001354000001E-3</v>
       </c>
       <c r="H46" s="29">
         <f t="shared" si="21"/>
-        <v>1.2887237874000001E-3</v>
+        <v>1.2598308033400001E-2</v>
       </c>
       <c r="I46" s="29">
         <f t="shared" si="21"/>
-        <v>2.4280175772000002E-3</v>
+        <v>8.4533012662000011E-3</v>
       </c>
       <c r="J46" s="29">
         <f t="shared" si="21"/>
-        <v>4.0819185666200006E-2</v>
+        <v>0.40185919311239998</v>
       </c>
       <c r="K46" s="29">
         <f t="shared" si="21"/>
-        <v>6.3673278515600007E-2</v>
+        <v>0.26987967177820005</v>
       </c>
       <c r="L46" s="29">
         <f t="shared" si="21"/>
-        <v>41.7817894300074</v>
+        <v>411.49007859179761</v>
       </c>
       <c r="M46" s="29">
         <f t="shared" si="21"/>
-        <v>64.143490882821595</v>
+        <v>276.36885411373498</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="22"/>
-        <v>3.4966831739999997E-4</v>
+        <v>7.9939134600000002E-4</v>
       </c>
       <c r="H47" s="29">
         <f t="shared" si="22"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="I47" s="29">
         <f t="shared" si="22"/>
-        <v>1.9693677717999999E-3</v>
+        <v>6.2157081146E-3</v>
       </c>
       <c r="J47" s="29">
         <f t="shared" si="22"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="K47" s="29">
         <f t="shared" si="22"/>
-        <v>6.1998876015600002E-2</v>
+        <v>0.19827909195700003</v>
       </c>
       <c r="L47" s="29">
         <f t="shared" si="22"/>
@@ -3495,66 +3495,66 @@
       </c>
       <c r="M47" s="29">
         <f t="shared" si="22"/>
-        <v>63.410810456958799</v>
+        <v>203.03693268538782</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="44"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45" t="s">
+      <c r="G52" s="47"/>
+      <c r="H52" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45" t="s">
+      <c r="I52" s="47"/>
+      <c r="J52" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45" t="s">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="45"/>
+      <c r="M52" s="47"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -3591,35 +3591,35 @@
       </c>
       <c r="F55" s="20">
         <f>(((4*1024*4)/(1024*1024))/F10)*10^9</f>
-        <v>154.59123603731956</v>
+        <v>29.705266720025246</v>
       </c>
       <c r="G55" s="20">
         <f>(((4096*8)/(1024*1024))/G10)*10^9</f>
-        <v>88.900394575511285</v>
+        <v>15.408502830973408</v>
       </c>
       <c r="H55" s="20">
         <f>(((32*1024*4)/(1024*1024))/H10)*10^9</f>
-        <v>200.55996341786269</v>
+        <v>30.25716410977493</v>
       </c>
       <c r="I55" s="20">
         <f>(((32*1024*8)/(1024*1024))/I10)*10^9</f>
-        <v>101.45926836504071</v>
+        <v>15.560279933170465</v>
       </c>
       <c r="J55" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/J10)*10^9</f>
-        <v>404.89565408792527</v>
+        <v>60.626000589512074</v>
       </c>
       <c r="K55" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/K10)*10^9</f>
-        <v>114.61419529473771</v>
+        <v>17.656048426550566</v>
       </c>
       <c r="L55" s="20">
         <f>(((1*1024*1024*1024*4)/(1024*1024))/L10)*10^9</f>
-        <v>500.24670522403227</v>
+        <v>80.507349148815052</v>
       </c>
       <c r="M55" s="20">
         <f>(((1*1024*1024*1024*8)/(1024*1024))/M10)*10^9</f>
-        <v>233.82611457224266</v>
+        <v>44.271438684679325</v>
       </c>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
@@ -3628,65 +3628,65 @@
       </c>
       <c r="F56" s="20">
         <f>(((4*1024*4)/(1024*1024))/F11)*10^9</f>
-        <v>156.2125089978405</v>
+        <v>29.238617055516883</v>
       </c>
       <c r="G56" s="20">
         <f>(((4096*8)/(1024*1024))/G11)*10^9</f>
-        <v>130.35389518295429</v>
+        <v>23.354009416336599</v>
       </c>
       <c r="H56" s="20">
         <f>(((32*1024*4)/(1024*1024))/H11)*10^9</f>
-        <v>197.65127042330579</v>
+        <v>29.781454159313625</v>
       </c>
       <c r="I56" s="20">
         <f>(((32*1024*8)/(1024*1024))/I11)*10^9</f>
-        <v>159.32273815881544</v>
+        <v>23.679660043434179</v>
       </c>
       <c r="J56" s="20">
         <f>(((1*1024*1024*4)/(1024*1024))/J11)*10^9</f>
-        <v>250.9414224300854</v>
+        <v>37.950869733838879</v>
       </c>
       <c r="K56" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/K11)*10^9</f>
-        <v>146.49649243448164</v>
+        <v>21.60949413989416</v>
       </c>
       <c r="L56" s="20">
         <f>(((1*1024*1024*1024*4)/(1024*1024))/L11)*10^9</f>
-        <v>262.33159022255671</v>
+        <v>39.808269079734117</v>
       </c>
       <c r="M56" s="20">
         <f>(((1*1024*1024*1024*8)/(1024*1024))/M11)*10^9</f>
-        <v>206.92216268284307</v>
+        <v>30.907963745895003</v>
       </c>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E57" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="20" t="e">
+      <c r="F57" s="20">
         <f>(((4*1024)/(1024*1024))/F12)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>4.8510562728737012</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="20" t="e">
+      <c r="H57" s="20">
         <f>(((32*1024)/(1024*1024))/H12)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>4.9637724034903652</v>
       </c>
       <c r="I57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J57" s="20" t="e">
+      <c r="J57" s="20">
         <f>(((1*1024*1024)/(1024*1024))/J12)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>4.9759444929809122</v>
       </c>
       <c r="K57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L57" s="20" t="e">
+      <c r="L57" s="20">
         <f>(((1*1024*1024*1024)/(1024*1024))/L12)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>4.9761829876874168</v>
       </c>
       <c r="M57" s="20" t="s">
         <v>94</v>
@@ -3698,35 +3698,35 @@
       </c>
       <c r="F58" s="20">
         <f t="shared" ref="F58" si="23">(((4*1024*4)/(1024*1024))/F13)*10^9</f>
-        <v>178.4062753336911</v>
+        <v>30.879507667011204</v>
       </c>
       <c r="G58" s="20">
         <f t="shared" ref="G58" si="24">(((4096*8)/(1024*1024))/G13)*10^9</f>
-        <v>187.1156644252705</v>
+        <v>69.091158321560201</v>
       </c>
       <c r="H58" s="20">
         <f t="shared" ref="H58" si="25">(((32*1024*4)/(1024*1024))/H13)*10^9</f>
-        <v>232.43748826190685</v>
+        <v>32.031956104432375</v>
       </c>
       <c r="I58" s="20">
         <f t="shared" ref="I58" si="26">(((32*1024*8)/(1024*1024))/I13)*10^9</f>
-        <v>255.00394236094891</v>
+        <v>70.586235627583633</v>
       </c>
       <c r="J58" s="20">
         <f t="shared" ref="J58" si="27">(((1*1024*1024*4)/(1024*1024))/J13)*10^9</f>
-        <v>234.57863899936729</v>
+        <v>32.160798848514759</v>
       </c>
       <c r="K58" s="20">
         <f t="shared" ref="K58" si="28">(((1*1024*1024*8)/(1024*1024))/K13)*10^9</f>
-        <v>257.17260833974768</v>
+        <v>70.747384657111965</v>
       </c>
       <c r="L58" s="20">
         <f t="shared" ref="L58" si="29">(((1*1024*1024*1024*4)/(1024*1024))/L13)*10^9</f>
-        <v>234.68633519181856</v>
+        <v>32.16321256136402</v>
       </c>
       <c r="M58" s="20">
         <f t="shared" ref="M58" si="30">(((1*1024*1024*1024*8)/(1024*1024))/M13)*10^9</f>
-        <v>257.41078016199396</v>
+        <v>70.750956849385446</v>
       </c>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
@@ -3735,35 +3735,35 @@
       </c>
       <c r="F59" s="20">
         <f t="shared" ref="F59:F70" si="31">(((4*1024*4)/(1024*1024))/F14)*10^9</f>
-        <v>248.8810308851404</v>
+        <v>36.063545698571076</v>
       </c>
       <c r="G59" s="20">
         <f t="shared" ref="G59:G70" si="32">(((4096*8)/(1024*1024))/G14)*10^9</f>
-        <v>262.65359982517776</v>
+        <v>113.49521685758076</v>
       </c>
       <c r="H59" s="20">
         <f t="shared" ref="H59:H70" si="33">(((32*1024*4)/(1024*1024))/H14)*10^9</f>
-        <v>371.05090521578836</v>
+        <v>50.976526736780457</v>
       </c>
       <c r="I59" s="20">
         <f t="shared" ref="I59:I70" si="34">(((32*1024*8)/(1024*1024))/I14)*10^9</f>
-        <v>397.42531980815488</v>
+        <v>117.28702903979924</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" ref="J59:J70" si="35">(((1*1024*1024*4)/(1024*1024))/J14)*10^9</f>
-        <v>376.90751716601727</v>
+        <v>53.952263630614532</v>
       </c>
       <c r="K59" s="20">
         <f t="shared" ref="K59:K70" si="36">(((1*1024*1024*8)/(1024*1024))/K14)*10^9</f>
-        <v>402.57709728829099</v>
+        <v>117.72003312582872</v>
       </c>
       <c r="L59" s="20">
         <f t="shared" ref="L59:L70" si="37">(((1*1024*1024*1024*4)/(1024*1024))/L14)*10^9</f>
-        <v>377.33188387787817</v>
+        <v>54.050873880271922</v>
       </c>
       <c r="M59" s="20">
         <f t="shared" ref="M59:M70" si="38">(((1*1024*1024*1024*8)/(1024*1024))/M14)*10^9</f>
-        <v>402.97102540575372</v>
+        <v>117.72841293224971</v>
       </c>
     </row>
     <row r="60" spans="5:13" x14ac:dyDescent="0.25">
@@ -3772,35 +3772,35 @@
       </c>
       <c r="F60" s="20">
         <f t="shared" si="31"/>
-        <v>241.65609823997031</v>
+        <v>21.721692637701629</v>
       </c>
       <c r="G60" s="20">
         <f t="shared" si="32"/>
-        <v>149.83051172513652</v>
+        <v>112.71090464477129</v>
       </c>
       <c r="H60" s="20">
         <f t="shared" si="33"/>
-        <v>372.17777592515955</v>
+        <v>45.644376265946775</v>
       </c>
       <c r="I60" s="20">
         <f t="shared" si="34"/>
-        <v>483.59547432011311</v>
+        <v>117.1807071808806</v>
       </c>
       <c r="J60" s="20">
         <f t="shared" si="35"/>
-        <v>376.66248226037413</v>
+        <v>53.740117360355299</v>
       </c>
       <c r="K60" s="20">
         <f t="shared" si="36"/>
-        <v>625.66692183449288</v>
+        <v>117.7152938785119</v>
       </c>
       <c r="L60" s="20">
         <f t="shared" si="37"/>
-        <v>377.31955338090938</v>
+        <v>54.050015505884545</v>
       </c>
       <c r="M60" s="20">
         <f t="shared" si="38"/>
-        <v>631.52225938433492</v>
+        <v>117.72840121420693</v>
       </c>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
@@ -3809,35 +3809,35 @@
       </c>
       <c r="F61" s="20">
         <f t="shared" si="31"/>
-        <v>227.45800215448219</v>
+        <v>29.180463189662738</v>
       </c>
       <c r="G61" s="20">
         <f t="shared" si="32"/>
-        <v>148.57816637901934</v>
+        <v>110.63670093749116</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="33"/>
-        <v>368.08226196856282</v>
+        <v>58.033050983195949</v>
       </c>
       <c r="I61" s="20">
         <f t="shared" si="34"/>
-        <v>310.87296860058672</v>
+        <v>116.93909578013579</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" si="35"/>
-        <v>376.42995151488117</v>
+        <v>67.095800222254837</v>
       </c>
       <c r="K61" s="20">
         <f t="shared" si="36"/>
-        <v>611.58666221227713</v>
+        <v>117.70123427840706</v>
       </c>
       <c r="L61" s="20">
         <f t="shared" si="37"/>
-        <v>377.23656663310044</v>
+        <v>67.433034001660218</v>
       </c>
       <c r="M61" s="20">
         <f t="shared" si="38"/>
-        <v>631.75492306591582</v>
+        <v>117.72232989664357</v>
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
@@ -3846,35 +3846,35 @@
       </c>
       <c r="F62" s="20">
         <f t="shared" si="31"/>
-        <v>232.35237259654704</v>
+        <v>11.36049673544766</v>
       </c>
       <c r="G62" s="20">
         <f t="shared" si="32"/>
-        <v>154.08738357157296</v>
+        <v>111.77040748808081</v>
       </c>
       <c r="H62" s="20">
         <f t="shared" si="33"/>
-        <v>368.37405585729488</v>
+        <v>11.518516429827539</v>
       </c>
       <c r="I62" s="20">
         <f t="shared" si="34"/>
-        <v>408.88356795072463</v>
+        <v>117.04311634319851</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" si="35"/>
-        <v>377.12413993304347</v>
+        <v>30.604260621109187</v>
       </c>
       <c r="K62" s="20">
         <f t="shared" si="36"/>
-        <v>739.27984163147232</v>
+        <v>117.7062841251668</v>
       </c>
       <c r="L62" s="20">
         <f t="shared" si="37"/>
-        <v>377.2582865123648</v>
+        <v>56.36325613345268</v>
       </c>
       <c r="M62" s="20">
         <f t="shared" si="38"/>
-        <v>757.28640624317325</v>
+        <v>117.72195219493246</v>
       </c>
     </row>
     <row r="63" spans="5:13" x14ac:dyDescent="0.25">
@@ -3883,35 +3883,35 @@
       </c>
       <c r="F63" s="20">
         <f t="shared" si="31"/>
-        <v>175.41988503682416</v>
+        <v>11.36510762847845</v>
       </c>
       <c r="G63" s="20">
         <f t="shared" si="32"/>
-        <v>125.33388948157894</v>
+        <v>69.200550947106422</v>
       </c>
       <c r="H63" s="20">
         <f t="shared" si="33"/>
-        <v>231.7488509891968</v>
+        <v>11.518686257893986</v>
       </c>
       <c r="I63" s="20">
         <f t="shared" si="34"/>
-        <v>154.52511342143325</v>
+        <v>70.597517621846364</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" si="35"/>
-        <v>234.56411273456192</v>
+        <v>23.354600928198252</v>
       </c>
       <c r="K63" s="20">
         <f t="shared" si="36"/>
-        <v>390.87078290733791</v>
+        <v>70.749639568172142</v>
       </c>
       <c r="L63" s="20">
         <f t="shared" si="37"/>
-        <v>234.67918649936141</v>
+        <v>56.334460390108823</v>
       </c>
       <c r="M63" s="20">
         <f t="shared" si="38"/>
-        <v>679.41439781525378</v>
+        <v>70.751742043854321</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
@@ -3920,35 +3920,35 @@
       </c>
       <c r="F64" s="20">
         <f t="shared" si="31"/>
-        <v>172.71682178940156</v>
+        <v>11.398669656704898</v>
       </c>
       <c r="G64" s="20">
         <f t="shared" si="32"/>
-        <v>127.4355481971438</v>
+        <v>69.198099211252384</v>
       </c>
       <c r="H64" s="20">
         <f t="shared" si="33"/>
-        <v>231.8124581578513</v>
+        <v>11.553239731757804</v>
       </c>
       <c r="I64" s="20">
         <f t="shared" si="34"/>
-        <v>154.86396749095596</v>
+        <v>70.599391659161952</v>
       </c>
       <c r="J64" s="20">
         <f t="shared" si="35"/>
-        <v>234.49741956108298</v>
+        <v>26.543673899286929</v>
       </c>
       <c r="K64" s="20">
         <f t="shared" si="36"/>
-        <v>304.76613085225256</v>
+        <v>70.749136517843354</v>
       </c>
       <c r="L64" s="20">
         <f t="shared" si="37"/>
-        <v>234.6549276395989</v>
+        <v>58.080335235416094</v>
       </c>
       <c r="M64" s="20">
         <f t="shared" si="38"/>
-        <v>679.31209368621546</v>
+        <v>70.751355618530397</v>
       </c>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.25">
@@ -3957,35 +3957,35 @@
       </c>
       <c r="F65" s="20">
         <f t="shared" si="31"/>
-        <v>133.1759371324344</v>
+        <v>6.3750712477962654</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="32"/>
-        <v>128.23985161110292</v>
+        <v>49.037607529665792</v>
       </c>
       <c r="H65" s="20">
         <f t="shared" si="33"/>
-        <v>166.61357247490466</v>
+        <v>6.4250871588773446</v>
       </c>
       <c r="I65" s="20">
         <f t="shared" si="34"/>
-        <v>154.94267121165169</v>
+        <v>49.785870968962492</v>
       </c>
       <c r="J65" s="20">
         <f t="shared" si="35"/>
-        <v>167.57184087595834</v>
+        <v>15.362116737462468</v>
       </c>
       <c r="K65" s="20">
         <f t="shared" si="36"/>
-        <v>343.22826086583444</v>
+        <v>49.866060695959291</v>
       </c>
       <c r="L65" s="20">
         <f t="shared" si="37"/>
-        <v>167.65824179042053</v>
+        <v>67.802109381135452</v>
       </c>
       <c r="M65" s="20">
         <f t="shared" si="38"/>
-        <v>679.41479056198352</v>
+        <v>71.413621458783936</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.25">
@@ -3994,35 +3994,35 @@
       </c>
       <c r="F66" s="20">
         <f t="shared" si="31"/>
-        <v>101.39453994458179</v>
+        <v>26.080874915289318</v>
       </c>
       <c r="G66" s="20">
         <f t="shared" si="32"/>
-        <v>78.206138869076668</v>
+        <v>34.923107698393984</v>
       </c>
       <c r="H66" s="20">
         <f t="shared" si="33"/>
-        <v>119.49292936438366</v>
+        <v>26.882356356817041</v>
       </c>
       <c r="I66" s="20">
         <f t="shared" si="34"/>
-        <v>87.878373518941828</v>
+        <v>35.303888101925999</v>
       </c>
       <c r="J66" s="20">
         <f t="shared" si="35"/>
-        <v>299.13218015385115</v>
+        <v>26.969224689537704</v>
       </c>
       <c r="K66" s="20">
         <f t="shared" si="36"/>
-        <v>197.05530406372375</v>
+        <v>92.718207520617199</v>
       </c>
       <c r="L66" s="20">
         <f t="shared" si="37"/>
-        <v>461.90251006075289</v>
+        <v>35.449949860735082</v>
       </c>
       <c r="M66" s="20">
         <f t="shared" si="38"/>
-        <v>785.18679429840438</v>
+        <v>70.243600240227835</v>
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
@@ -4031,35 +4031,35 @@
       </c>
       <c r="F67" s="20">
         <f t="shared" si="31"/>
-        <v>256.42919271987267</v>
+        <v>26.389524583214406</v>
       </c>
       <c r="G67" s="20">
         <f t="shared" si="32"/>
-        <v>231.84728497555403</v>
+        <v>122.55911271124289</v>
       </c>
       <c r="H67" s="20">
         <f t="shared" si="33"/>
-        <v>396.52957317556741</v>
+        <v>27.225967910385183</v>
       </c>
       <c r="I67" s="20">
         <f t="shared" si="34"/>
-        <v>343.24864245161911</v>
+        <v>127.04717464870185</v>
       </c>
       <c r="J67" s="20">
         <f t="shared" si="35"/>
-        <v>405.39388728854021</v>
+        <v>27.320708770765769</v>
       </c>
       <c r="K67" s="20">
         <f t="shared" si="36"/>
-        <v>348.03169803099325</v>
+        <v>127.56153731998536</v>
       </c>
       <c r="L67" s="20">
         <f t="shared" si="37"/>
-        <v>406.00255794160313</v>
+        <v>27.321428214666767</v>
       </c>
       <c r="M67" s="20">
         <f t="shared" si="38"/>
-        <v>348.69033644569731</v>
+        <v>127.57085916641137</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
@@ -4068,35 +4068,35 @@
       </c>
       <c r="F68" s="20">
         <f t="shared" si="31"/>
-        <v>236.98659224655705</v>
+        <v>19.916840022842226</v>
       </c>
       <c r="G68" s="20">
         <f t="shared" si="32"/>
-        <v>231.7235038076806</v>
+        <v>103.93869446347678</v>
       </c>
       <c r="H68" s="20">
         <f t="shared" si="33"/>
-        <v>341.66167840616191</v>
+        <v>20.386821175937939</v>
       </c>
       <c r="I68" s="20">
         <f t="shared" si="34"/>
-        <v>342.46716082394857</v>
+        <v>107.36825378419411</v>
       </c>
       <c r="J68" s="20">
         <f t="shared" si="35"/>
-        <v>347.54741437322298</v>
+        <v>25.040155959105771</v>
       </c>
       <c r="K68" s="20">
         <f t="shared" si="36"/>
-        <v>347.52908557799475</v>
+        <v>107.73582115455065</v>
       </c>
       <c r="L68" s="20">
         <f t="shared" si="37"/>
-        <v>347.77219534904515</v>
+        <v>25.494032655239483</v>
       </c>
       <c r="M68" s="20">
         <f t="shared" si="38"/>
-        <v>347.86055501619501</v>
+        <v>107.74280425768384</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
@@ -4105,35 +4105,35 @@
       </c>
       <c r="F69" s="20">
         <f t="shared" si="31"/>
-        <v>183.43292518284596</v>
+        <v>24.388188156627578</v>
       </c>
       <c r="G69" s="20">
         <f t="shared" si="32"/>
-        <v>186.83486787038146</v>
+        <v>73.198554299273169</v>
       </c>
       <c r="H69" s="20">
         <f t="shared" si="33"/>
-        <v>245.1456263078519</v>
+        <v>25.076780085265067</v>
       </c>
       <c r="I69" s="20">
         <f t="shared" si="34"/>
-        <v>260.23287719714619</v>
+        <v>74.74594600412658</v>
       </c>
       <c r="J69" s="20">
         <f t="shared" si="35"/>
-        <v>247.66785115880384</v>
+        <v>25.157070370099373</v>
       </c>
       <c r="K69" s="20">
         <f t="shared" si="36"/>
-        <v>317.5460801040154</v>
+        <v>74.919314473663292</v>
       </c>
       <c r="L69" s="20">
         <f t="shared" si="37"/>
-        <v>247.76895727125319</v>
+        <v>25.157910089661041</v>
       </c>
       <c r="M69" s="20">
         <f t="shared" si="38"/>
-        <v>322.78350484265434</v>
+        <v>74.916042425965358</v>
       </c>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="G70" s="20">
         <f t="shared" si="32"/>
-        <v>225.87476780073871</v>
+        <v>98.801732587182656</v>
       </c>
       <c r="H70" s="20">
         <f t="shared" si="33"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="I70" s="20">
         <f t="shared" si="34"/>
-        <v>320.83900683643759</v>
+        <v>101.65374376506763</v>
       </c>
       <c r="J70" s="20">
         <f t="shared" si="35"/>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="K70" s="20">
         <f t="shared" si="36"/>
-        <v>326.12204122720703</v>
+        <v>101.97343451817329</v>
       </c>
       <c r="L70" s="20">
         <f t="shared" si="37"/>
@@ -4170,11 +4170,11 @@
       </c>
       <c r="M70" s="20">
         <f t="shared" si="38"/>
-        <v>326.51310795110425</v>
+        <v>101.97386517891414</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4194,21 +4194,21 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="49"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F73" s="1">
-        <v>351517</v>
+        <v>2028101</v>
       </c>
       <c r="G73" s="1">
-        <v>2464043</v>
+        <v>16066549</v>
       </c>
       <c r="H73" s="1">
-        <v>69799382</v>
+        <v>453102518</v>
       </c>
       <c r="I73" s="1">
-        <v>35034581210</v>
+        <v>185040293322</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
@@ -4216,16 +4216,16 @@
         <v>109</v>
       </c>
       <c r="F74" s="1">
-        <v>101073</v>
+        <v>526001</v>
       </c>
       <c r="G74" s="1">
-        <v>623255</v>
+        <v>4131253</v>
       </c>
       <c r="H74" s="1">
-        <v>19758177</v>
+        <v>131956585</v>
       </c>
       <c r="I74" s="1">
-        <v>8187959975</v>
+        <v>50877342793</v>
       </c>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
@@ -4233,16 +4233,16 @@
         <v>110</v>
       </c>
       <c r="F75" s="1">
-        <v>239732</v>
+        <v>1338100</v>
       </c>
       <c r="G75" s="1">
-        <v>1569142</v>
+        <v>10557584</v>
       </c>
       <c r="H75" s="1">
-        <v>54608816</v>
+        <v>370207648</v>
       </c>
       <c r="I75" s="1">
-        <v>39589765996</v>
+        <v>265044959524</v>
       </c>
     </row>
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
@@ -4250,450 +4250,458 @@
         <v>111</v>
       </c>
       <c r="F76" s="1">
-        <v>100024</v>
+        <v>534396</v>
       </c>
       <c r="G76" s="1">
-        <v>632427</v>
+        <v>4197243</v>
       </c>
       <c r="H76" s="1">
-        <v>15939975</v>
+        <v>105399429</v>
       </c>
       <c r="I76" s="1">
-        <v>15613826747</v>
+        <v>102893195175</v>
       </c>
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F77" s="1">
+        <v>805237</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6295615</v>
+      </c>
+      <c r="H77" s="1">
+        <v>200966872</v>
+      </c>
+      <c r="I77" s="1">
+        <v>205780213978</v>
+      </c>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E78" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F78" s="1">
-        <v>167009</v>
+        <v>452301</v>
       </c>
       <c r="G78" s="1">
-        <v>980377</v>
+        <v>3541767</v>
       </c>
       <c r="H78" s="1">
-        <v>31107512</v>
+        <v>113078385</v>
       </c>
       <c r="I78" s="1">
-        <v>31824618980</v>
+        <v>115786419927</v>
       </c>
     </row>
     <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F79" s="1">
-        <v>87581</v>
+        <v>505999</v>
       </c>
       <c r="G79" s="1">
-        <v>537779</v>
+        <v>3902353</v>
       </c>
       <c r="H79" s="1">
-        <v>17051851</v>
+        <v>124375020</v>
       </c>
       <c r="I79" s="1">
-        <v>17453082629</v>
+        <v>127350462650</v>
       </c>
     </row>
     <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E80" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F80" s="1">
-        <v>118978</v>
+        <v>275342</v>
       </c>
       <c r="G80" s="1">
-        <v>629049</v>
+        <v>2131523</v>
       </c>
       <c r="H80" s="1">
-        <v>19871970</v>
+        <v>67957847</v>
       </c>
       <c r="I80" s="1">
-        <v>20329005024</v>
+        <v>69583882055</v>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F81" s="1">
-        <v>62781</v>
+        <v>433263</v>
       </c>
       <c r="G81" s="1">
-        <v>336881</v>
+        <v>2452109</v>
       </c>
       <c r="H81" s="1">
-        <v>10612683</v>
+        <v>74139614</v>
       </c>
       <c r="I81" s="1">
-        <v>10855165373</v>
+        <v>75780458408</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" s="1">
-        <v>208569</v>
+        <v>277258</v>
       </c>
       <c r="G82" s="1">
-        <v>516961</v>
+        <v>2133457</v>
       </c>
       <c r="H82" s="1">
-        <v>12786356</v>
+        <v>67960583</v>
       </c>
       <c r="I82" s="1">
-        <v>12971830966</v>
+        <v>69583888981</v>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83" s="1">
-        <v>64658</v>
+        <v>719327</v>
       </c>
       <c r="G83" s="1">
-        <v>335861</v>
+        <v>2738563</v>
       </c>
       <c r="H83" s="1">
-        <v>10619587</v>
+        <v>74432290</v>
       </c>
       <c r="I83" s="1">
-        <v>10855520111</v>
+        <v>75781661886</v>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F84" s="1">
-        <v>210327</v>
+        <v>282456</v>
       </c>
       <c r="G84" s="1">
-        <v>804187</v>
+        <v>2137865</v>
       </c>
       <c r="H84" s="1">
-        <v>13080730</v>
+        <v>67968701</v>
       </c>
       <c r="I84" s="1">
-        <v>12967053680</v>
+        <v>69587477645</v>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" s="1">
-        <v>68694</v>
+        <v>535461</v>
       </c>
       <c r="G85" s="1">
-        <v>339598</v>
+        <v>2153945</v>
       </c>
       <c r="H85" s="1">
-        <v>10626147</v>
+        <v>59616250</v>
       </c>
       <c r="I85" s="1">
-        <v>10857908173</v>
+        <v>60741742688</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="1">
-        <v>202807</v>
+        <v>279591</v>
       </c>
       <c r="G86" s="1">
-        <v>611421</v>
+        <v>2135965</v>
       </c>
       <c r="H86" s="1">
-        <v>10821342</v>
+        <v>67965785</v>
       </c>
       <c r="I86" s="1">
-        <v>10817571704</v>
+        <v>69587700911</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F87" s="1">
-        <v>67247</v>
+        <v>1375380</v>
       </c>
       <c r="G87" s="1">
-        <v>339329</v>
+        <v>10852092</v>
       </c>
       <c r="H87" s="1">
-        <v>10606587</v>
+        <v>130700756</v>
       </c>
       <c r="I87" s="1">
-        <v>10857283051</v>
+        <v>72671457985</v>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F88" s="1">
-        <v>249334</v>
+        <v>451586</v>
       </c>
       <c r="G88" s="1">
-        <v>1617860</v>
+        <v>3541201</v>
       </c>
       <c r="H88" s="1">
-        <v>20467122</v>
+        <v>113074781</v>
       </c>
       <c r="I88" s="1">
-        <v>12057442448</v>
+        <v>115785134943</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F89" s="1">
-        <v>89072</v>
+        <v>1374822</v>
       </c>
       <c r="G89" s="1">
-        <v>539377</v>
+        <v>10851932</v>
       </c>
       <c r="H89" s="1">
-        <v>17052907</v>
+        <v>171272462</v>
       </c>
       <c r="I89" s="1">
-        <v>17453614277</v>
+        <v>72708604496</v>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" s="1">
-        <v>245222</v>
+        <v>451602</v>
       </c>
       <c r="G90" s="1">
-        <v>1614320</v>
+        <v>3541107</v>
       </c>
       <c r="H90" s="1">
-        <v>26249636</v>
+        <v>113075585</v>
       </c>
       <c r="I90" s="1">
-        <v>12059258294</v>
+        <v>115785767331</v>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F91" s="1">
-        <v>90466</v>
+        <v>1370774</v>
       </c>
       <c r="G91" s="1">
-        <v>539229</v>
+        <v>10819476</v>
       </c>
       <c r="H91" s="1">
-        <v>17057757</v>
+        <v>150695040</v>
       </c>
       <c r="I91" s="1">
-        <v>17455418649</v>
+        <v>70523008922</v>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F92" s="1">
-        <v>243684</v>
+        <v>637266</v>
       </c>
       <c r="G92" s="1">
-        <v>1613500</v>
+        <v>5021505</v>
       </c>
       <c r="H92" s="1">
-        <v>23308104</v>
+        <v>160429757</v>
       </c>
       <c r="I92" s="1">
-        <v>12057435478</v>
+        <v>114712009175</v>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F93" s="1">
-        <v>117326</v>
+        <v>2450953</v>
       </c>
       <c r="G93" s="1">
-        <v>750239</v>
+        <v>19454989</v>
       </c>
       <c r="H93" s="1">
-        <v>23870359</v>
+        <v>260380784</v>
       </c>
       <c r="I93" s="1">
-        <v>24430651045</v>
+        <v>60411099852</v>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E94" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F94" s="1">
-        <v>399585</v>
+        <v>894823</v>
       </c>
       <c r="G94" s="1">
-        <v>2844841</v>
+        <v>7081373</v>
       </c>
       <c r="H94" s="1">
-        <v>40597740</v>
+        <v>86282945</v>
       </c>
       <c r="I94" s="1">
-        <v>10433186166</v>
+        <v>116622723949</v>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F95" s="1">
-        <v>154101</v>
+        <v>599098</v>
       </c>
       <c r="G95" s="1">
-        <v>1046087</v>
+        <v>4649890</v>
       </c>
       <c r="H95" s="1">
-        <v>13372015</v>
+        <v>148317204</v>
       </c>
       <c r="I95" s="1">
-        <v>8867672097</v>
+        <v>115543181756</v>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F96" s="1">
-        <v>134787</v>
+        <v>254979</v>
       </c>
       <c r="G96" s="1">
-        <v>728335</v>
+        <v>1967773</v>
       </c>
       <c r="H96" s="1">
-        <v>22986412</v>
+        <v>62714829</v>
       </c>
       <c r="I96" s="1">
-        <v>23493624984</v>
+        <v>64215292219</v>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E97" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F97" s="1">
-        <v>60933</v>
+        <v>592091</v>
       </c>
       <c r="G97" s="1">
-        <v>315235</v>
+        <v>4591205</v>
       </c>
       <c r="H97" s="1">
-        <v>9866947</v>
+        <v>146409086</v>
       </c>
       <c r="I97" s="1">
-        <v>10088606389</v>
+        <v>149918956206</v>
       </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F98" s="1">
-        <v>134859</v>
+        <v>300658</v>
       </c>
       <c r="G98" s="1">
-        <v>729997</v>
+        <v>2328435</v>
       </c>
       <c r="H98" s="1">
-        <v>23019656</v>
+        <v>74255711</v>
       </c>
       <c r="I98" s="1">
-        <v>23549666330</v>
+        <v>76032919845</v>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F99" s="1">
-        <v>65932</v>
+        <v>784512</v>
       </c>
       <c r="G99" s="1">
-        <v>365859</v>
+        <v>6131412</v>
       </c>
       <c r="H99" s="1">
-        <v>11509221</v>
+        <v>159743414</v>
       </c>
       <c r="I99" s="1">
-        <v>11777824837</v>
+        <v>160665048774</v>
       </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F100" s="1">
-        <v>167260</v>
+        <v>426921</v>
       </c>
       <c r="G100" s="1">
-        <v>960678</v>
+        <v>3344663</v>
       </c>
       <c r="H100" s="1">
-        <v>25193194</v>
+        <v>106781543</v>
       </c>
       <c r="I100" s="1">
-        <v>25379239884</v>
+        <v>109349075775</v>
       </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E101" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F101" s="1">
-        <v>85181</v>
+        <v>640679</v>
       </c>
       <c r="G101" s="1">
-        <v>509901</v>
+        <v>4984691</v>
       </c>
       <c r="H101" s="1">
-        <v>16150663</v>
+        <v>159001026</v>
       </c>
       <c r="I101" s="1">
-        <v>16531530201</v>
+        <v>162811616124</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E102" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F102" s="1">
-        <v>138351</v>
+        <v>316290</v>
       </c>
       <c r="G102" s="1">
-        <v>779207</v>
+        <v>2459329</v>
       </c>
       <c r="H102" s="1">
-        <v>24530694</v>
+        <v>78451805</v>
       </c>
       <c r="I102" s="1">
-        <v>25089344962</v>
+        <v>80334309047</v>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.25">
@@ -4715,6 +4723,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="E48:L48"/>
@@ -4731,20 +4753,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4758,7 +4766,7 @@
   </sheetPr>
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
@@ -4791,29 +4799,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="40"/>
@@ -5009,69 +5017,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="45"/>
+      <c r="W7" s="47"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -6206,11 +6214,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -6283,9 +6291,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -6306,10 +6314,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="E27" s="43" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="E27" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -6340,7 +6348,7 @@
       <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -6373,22 +6381,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -6413,16 +6421,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -6462,17 +6470,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7111,62 +7119,62 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="44"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45" t="s">
+      <c r="G52" s="47"/>
+      <c r="H52" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45" t="s">
+      <c r="I52" s="47"/>
+      <c r="J52" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45" t="s">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="45"/>
+      <c r="M52" s="47"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -7786,7 +7794,7 @@
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -7806,7 +7814,7 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="49"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
@@ -8327,18 +8335,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
     <mergeCell ref="O31:W31"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
@@ -8349,14 +8353,18 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8369,7 +8377,7 @@
   </sheetPr>
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
@@ -8402,69 +8410,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -9599,11 +9607,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -9676,9 +9684,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9699,10 +9707,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -9733,7 +9741,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -9766,22 +9774,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -9806,16 +9814,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -9855,17 +9863,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -10504,62 +10512,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -11179,7 +11187,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -11199,7 +11207,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -11720,11 +11728,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -11738,14 +11749,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11758,7 +11766,7 @@
   </sheetPr>
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
@@ -11791,69 +11799,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -12988,11 +12996,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -13065,9 +13073,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -13088,10 +13096,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -13122,7 +13130,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -13155,22 +13163,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -13195,16 +13203,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13244,17 +13252,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -13893,62 +13901,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -14568,7 +14576,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -14588,7 +14596,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -15109,11 +15117,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -15127,14 +15138,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15147,8 +15155,8 @@
   </sheetPr>
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15180,69 +15188,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -16377,11 +16385,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -16454,9 +16462,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -16477,10 +16485,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -16511,7 +16519,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -16544,22 +16552,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -16584,16 +16592,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -16633,17 +16641,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -17282,62 +17290,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -17957,7 +17965,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -17977,7 +17985,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -18498,11 +18506,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -18516,14 +18527,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18569,69 +18577,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -19858,7 +19866,7 @@
       <c r="W21" s="28"/>
     </row>
     <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="48" t="s">
         <v>55</v>
       </c>
       <c r="O23" t="s">
@@ -19869,43 +19877,43 @@
       </c>
     </row>
     <row r="24" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E24" s="44"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45" t="s">
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="13" t="s">
@@ -20525,7 +20533,7 @@
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -20545,7 +20553,7 @@
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="49"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
@@ -20826,13 +20834,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="F3:M3"/>
@@ -20843,6 +20844,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/Benchmark_April_6th _no_i.xlsx
+++ b/Results/Benchmark_April_6th _no_i.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="9075" windowHeight="6885" tabRatio="719" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="360" windowWidth="9075" windowHeight="6885" tabRatio="719" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TI DSP 1 Core" sheetId="1" r:id="rId1"/>
@@ -795,14 +795,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -813,15 +831,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,15 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,29 +1179,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="14"/>
@@ -1397,69 +1397,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="45"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="47"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -2594,11 +2594,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -2671,9 +2671,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2694,10 +2694,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="E27" s="48" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="E27" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -2728,7 +2728,7 @@
       <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -2761,22 +2761,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47" t="s">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47" t="s">
+      <c r="K29" s="45"/>
+      <c r="L29" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="47"/>
+      <c r="M29" s="45"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -2801,16 +2801,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2850,17 +2850,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="52"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="55"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3499,62 +3499,62 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="49"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47" t="s">
+      <c r="G52" s="45"/>
+      <c r="H52" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47" t="s">
+      <c r="I52" s="45"/>
+      <c r="J52" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47" t="s">
+      <c r="K52" s="45"/>
+      <c r="L52" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="47"/>
+      <c r="M52" s="45"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -4174,7 +4174,7 @@
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="41"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
@@ -4723,20 +4723,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="E48:L48"/>
@@ -4753,6 +4739,20 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4799,29 +4799,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="40"/>
@@ -5017,69 +5017,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="45"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="47"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -6214,11 +6214,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -6291,9 +6291,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -6314,10 +6314,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="E27" s="48" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="E27" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -6348,7 +6348,7 @@
       <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -6381,22 +6381,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47" t="s">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47" t="s">
+      <c r="K29" s="45"/>
+      <c r="L29" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="47"/>
+      <c r="M29" s="45"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -6421,16 +6421,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -6470,17 +6470,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="52"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="55"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7119,62 +7119,62 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="49"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47" t="s">
+      <c r="G52" s="45"/>
+      <c r="H52" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47" t="s">
+      <c r="I52" s="45"/>
+      <c r="J52" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47" t="s">
+      <c r="K52" s="45"/>
+      <c r="L52" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="47"/>
+      <c r="M52" s="45"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -7794,7 +7794,7 @@
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -7814,7 +7814,7 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="41"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
@@ -8335,14 +8335,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:T1"/>
     <mergeCell ref="O31:W31"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
@@ -8353,18 +8357,14 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="F30:M30"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8410,69 +8410,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="47"/>
+      <c r="M2" s="45"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -9607,11 +9607,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -9684,9 +9684,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9707,10 +9707,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="E22" s="48" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="E22" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -9741,7 +9741,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -9774,22 +9774,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47" t="s">
+      <c r="I24" s="45"/>
+      <c r="J24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="47"/>
+      <c r="M24" s="45"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -9814,16 +9814,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -9863,17 +9863,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="O26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -10512,62 +10512,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="49"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47" t="s">
+      <c r="G47" s="45"/>
+      <c r="H47" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47" t="s">
+      <c r="I47" s="45"/>
+      <c r="J47" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47" t="s">
+      <c r="K47" s="45"/>
+      <c r="L47" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="47"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -11207,7 +11207,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="41"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -11728,14 +11728,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -11749,11 +11746,14 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11799,69 +11799,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="47"/>
+      <c r="M2" s="45"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -12996,11 +12996,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -13073,9 +13073,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -13096,10 +13096,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="E22" s="48" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="E22" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -13130,7 +13130,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -13163,22 +13163,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47" t="s">
+      <c r="I24" s="45"/>
+      <c r="J24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="47"/>
+      <c r="M24" s="45"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -13203,16 +13203,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13252,17 +13252,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="O26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -13901,62 +13901,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="49"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47" t="s">
+      <c r="G47" s="45"/>
+      <c r="H47" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47" t="s">
+      <c r="I47" s="45"/>
+      <c r="J47" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47" t="s">
+      <c r="K47" s="45"/>
+      <c r="L47" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="47"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -14576,7 +14576,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -14596,7 +14596,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="41"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -15117,14 +15117,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -15138,11 +15135,14 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15155,7 +15155,7 @@
   </sheetPr>
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -15188,69 +15188,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="47"/>
+      <c r="M2" s="45"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -16385,11 +16385,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -16462,9 +16462,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -16485,10 +16485,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="E22" s="48" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="E22" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -16519,7 +16519,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -16552,22 +16552,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47" t="s">
+      <c r="I24" s="45"/>
+      <c r="J24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="47"/>
+      <c r="M24" s="45"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -16592,16 +16592,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -16641,17 +16641,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="O26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -17290,62 +17290,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="49"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47" t="s">
+      <c r="G47" s="45"/>
+      <c r="H47" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47" t="s">
+      <c r="I47" s="45"/>
+      <c r="J47" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47" t="s">
+      <c r="K47" s="45"/>
+      <c r="L47" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="47"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -17965,7 +17965,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -17985,7 +17985,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="41"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -18506,14 +18506,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -18527,11 +18524,14 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18544,8 +18544,8 @@
   </sheetPr>
   <dimension ref="D2:W76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18577,69 +18577,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="47"/>
+      <c r="M2" s="45"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
       <c r="O3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -18703,70 +18703,70 @@
       </c>
       <c r="F5" s="20">
         <f>$F47</f>
-        <v>0</v>
+        <v>325422</v>
       </c>
       <c r="G5" s="20">
         <f>$F46</f>
-        <v>0</v>
+        <v>466612</v>
       </c>
       <c r="H5" s="20">
         <f>$G47</f>
-        <v>0</v>
+        <v>600159</v>
       </c>
       <c r="I5" s="20">
         <f>$G46</f>
-        <v>0</v>
+        <v>846992</v>
       </c>
       <c r="J5" s="20">
         <f>$H47</f>
-        <v>0</v>
+        <v>19377235</v>
       </c>
       <c r="K5" s="20">
         <f>$H46</f>
-        <v>0</v>
+        <v>27792757</v>
       </c>
       <c r="L5" s="20">
         <f>$I47</f>
-        <v>0</v>
+        <v>19858658719</v>
       </c>
       <c r="M5" s="20">
         <f>$I46</f>
-        <v>0</v>
+        <v>28401478808</v>
       </c>
       <c r="O5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="22">
         <f>F5*($P$23)/4096</f>
-        <v>0</v>
+        <v>214.51157226562501</v>
       </c>
       <c r="Q5" s="22">
         <f>G5*($P$23)/4096</f>
-        <v>0</v>
+        <v>307.58115234375003</v>
       </c>
       <c r="R5" s="22">
         <f>H5*($P$23)/32768</f>
-        <v>0</v>
+        <v>49.451577758789064</v>
       </c>
       <c r="S5" s="22">
         <f>I5*($P$23)/32768</f>
-        <v>0</v>
+        <v>69.789990234375011</v>
       </c>
       <c r="T5" s="22">
         <f>J5*($P$23)/(1048576)</f>
-        <v>0</v>
+        <v>49.894842624664307</v>
       </c>
       <c r="U5" s="22">
         <f>K5*($P$23)/(1048576)</f>
-        <v>0</v>
+        <v>71.564144039154058</v>
       </c>
       <c r="V5" s="22">
         <f>L5*($P$23)/1073741824</f>
-        <v>0</v>
+        <v>49.936006349790844</v>
       </c>
       <c r="W5" s="22">
         <f>M5*($P$23)/1073741824</f>
-        <v>0</v>
+        <v>71.417533589154488</v>
       </c>
     </row>
     <row r="6" spans="5:23" x14ac:dyDescent="0.25">
@@ -18775,70 +18775,70 @@
       </c>
       <c r="F6" s="19">
         <f>$F49</f>
-        <v>0</v>
+        <v>247606</v>
       </c>
       <c r="G6" s="19">
         <f>$F48</f>
-        <v>0</v>
+        <v>417255</v>
       </c>
       <c r="H6" s="19">
         <f>$G49</f>
-        <v>0</v>
+        <v>438877</v>
       </c>
       <c r="I6" s="19">
         <f>$G48</f>
-        <v>0</v>
+        <v>712706</v>
       </c>
       <c r="J6" s="19">
         <f>$H49</f>
-        <v>0</v>
+        <v>14021824</v>
       </c>
       <c r="K6" s="19">
         <f>$H48</f>
-        <v>0</v>
+        <v>23679861</v>
       </c>
       <c r="L6" s="19">
         <f>$I49</f>
-        <v>0</v>
+        <v>13581479163</v>
       </c>
       <c r="M6" s="19">
         <f>$I48</f>
-        <v>0</v>
+        <v>23621279248</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="22">
         <f t="shared" ref="P6:P20" si="0">F6*($P$23)/4096</f>
-        <v>0</v>
+        <v>163.21684570312502</v>
       </c>
       <c r="Q6" s="22">
         <f t="shared" ref="Q6:Q20" si="1">G6*($P$23)/4096</f>
-        <v>0</v>
+        <v>275.0460205078125</v>
       </c>
       <c r="R6" s="22">
         <f t="shared" ref="R6:R20" si="2">H6*($P$23)/32768</f>
-        <v>0</v>
+        <v>36.162350463867192</v>
       </c>
       <c r="S6" s="22">
         <f t="shared" ref="S6:S20" si="3">I6*($P$23)/32768</f>
-        <v>0</v>
+        <v>58.725164794921881</v>
       </c>
       <c r="T6" s="22">
         <f t="shared" ref="T6:T20" si="4">J6*($P$23)/(1048576)</f>
-        <v>0</v>
+        <v>36.105084228515629</v>
       </c>
       <c r="U6" s="22">
         <f t="shared" ref="U6:U20" si="5">K6*($P$23)/(1048576)</f>
-        <v>0</v>
+        <v>60.973763179779056</v>
       </c>
       <c r="V6" s="22">
         <f t="shared" ref="V6:V20" si="6">L6*($P$23)/1073741824</f>
-        <v>0</v>
+        <v>34.151592981163418</v>
       </c>
       <c r="W6" s="22">
         <f t="shared" ref="W6:W20" si="7">M6*($P$23)/1073741824</f>
-        <v>0</v>
+        <v>59.397382633388048</v>
       </c>
     </row>
     <row r="7" spans="5:23" x14ac:dyDescent="0.25">
@@ -18847,28 +18847,28 @@
       </c>
       <c r="F7" s="19">
         <f>$F50</f>
-        <v>0</v>
+        <v>42937</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H7" s="19">
         <f>$G50</f>
-        <v>0</v>
+        <v>346267</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J7" s="19">
         <f>$H50</f>
-        <v>0</v>
+        <v>11095682</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="L7" s="19">
         <f>$I50</f>
-        <v>0</v>
+        <v>11361218820</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>94</v>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="P7" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.303198242187502</v>
       </c>
       <c r="Q7" s="22" t="e">
         <f t="shared" si="1"/>
@@ -18886,7 +18886,7 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.531521606445313</v>
       </c>
       <c r="S7" s="22" t="e">
         <f t="shared" si="3"/>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="T7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28.570500755310061</v>
       </c>
       <c r="U7" s="22" t="e">
         <f t="shared" si="5"/>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="V7" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28.568590817973021</v>
       </c>
       <c r="W7" s="22" t="e">
         <f t="shared" si="7"/>
@@ -18915,70 +18915,70 @@
       </c>
       <c r="F8" s="21">
         <f>$F52</f>
-        <v>0</v>
+        <v>4627472</v>
       </c>
       <c r="G8" s="19">
         <f>$F51</f>
-        <v>0</v>
+        <v>783956</v>
       </c>
       <c r="H8" s="21">
         <f>$G52</f>
-        <v>0</v>
+        <v>9933793</v>
       </c>
       <c r="I8" s="19">
         <f>$G51</f>
-        <v>0</v>
+        <v>1214981</v>
       </c>
       <c r="J8" s="21">
         <f>$H52</f>
-        <v>0</v>
+        <v>318369409</v>
       </c>
       <c r="K8" s="19">
         <f>$H51</f>
-        <v>0</v>
+        <v>38515372</v>
       </c>
       <c r="L8" s="21">
         <f>$I52</f>
-        <v>0</v>
+        <v>327972562667</v>
       </c>
       <c r="M8" s="19">
         <f>$I51</f>
-        <v>0</v>
+        <v>39593440043</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3050.3355468750001</v>
       </c>
       <c r="Q8" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>516.76787109375005</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>818.51932067871098</v>
       </c>
       <c r="S8" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100.11134948730469</v>
       </c>
       <c r="T8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>819.77596693038947</v>
       </c>
       <c r="U8" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99.174026870727545</v>
       </c>
       <c r="V8" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>824.71027895892041</v>
       </c>
       <c r="W8" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>99.56051420057193</v>
       </c>
     </row>
     <row r="9" spans="5:23" x14ac:dyDescent="0.25">
@@ -18987,70 +18987,70 @@
       </c>
       <c r="F9" s="21">
         <f>$F54</f>
-        <v>0</v>
+        <v>74354</v>
       </c>
       <c r="G9" s="19">
         <f>$F53</f>
-        <v>0</v>
+        <v>114093</v>
       </c>
       <c r="H9" s="21">
         <f>$G54</f>
-        <v>0</v>
+        <v>138664</v>
       </c>
       <c r="I9" s="19">
         <f>$G53</f>
-        <v>0</v>
+        <v>230165</v>
       </c>
       <c r="J9" s="21">
         <f>$H54</f>
-        <v>0</v>
+        <v>4483326</v>
       </c>
       <c r="K9" s="19">
         <f>$H53</f>
-        <v>0</v>
+        <v>7064997</v>
       </c>
       <c r="L9" s="21">
         <f>$I54</f>
-        <v>0</v>
+        <v>4549448138</v>
       </c>
       <c r="M9" s="19">
         <f>$I53</f>
-        <v>0</v>
+        <v>7080554820</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P9" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49.012646484375004</v>
       </c>
       <c r="Q9" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75.207788085937509</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.425561523437501</v>
       </c>
       <c r="S9" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.965011596679688</v>
       </c>
       <c r="T9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.544208717346192</v>
       </c>
       <c r="U9" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18.191806697845461</v>
       </c>
       <c r="V9" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11.439910132996738</v>
       </c>
       <c r="W9" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17.804557470604777</v>
       </c>
     </row>
     <row r="10" spans="5:23" x14ac:dyDescent="0.25">
@@ -19059,70 +19059,70 @@
       </c>
       <c r="F10" s="21">
         <f>$F56</f>
-        <v>0</v>
+        <v>46431</v>
       </c>
       <c r="G10" s="19">
         <f>$F55</f>
-        <v>0</v>
+        <v>52189</v>
       </c>
       <c r="H10" s="21">
         <f>$G56</f>
-        <v>0</v>
+        <v>86953</v>
       </c>
       <c r="I10" s="19">
         <f>$G55</f>
-        <v>0</v>
+        <v>109591</v>
       </c>
       <c r="J10" s="21">
         <f>$H56</f>
-        <v>0</v>
+        <v>2828566</v>
       </c>
       <c r="K10" s="19">
         <f>$H55</f>
-        <v>0</v>
+        <v>3078468</v>
       </c>
       <c r="L10" s="21">
         <f>$I56</f>
-        <v>0</v>
+        <v>2886259413</v>
       </c>
       <c r="M10" s="19">
         <f>$I55</f>
-        <v>0</v>
+        <v>3283304051</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.606372070312503</v>
       </c>
       <c r="Q10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34.401928710937504</v>
       </c>
       <c r="R10" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1647064208984377</v>
       </c>
       <c r="S10" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0300201416015629</v>
       </c>
       <c r="T10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.2833330154418947</v>
       </c>
       <c r="U10" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.9268108367919927</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.2577040783129636</v>
       </c>
       <c r="W10" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.2561009914614267</v>
       </c>
     </row>
     <row r="11" spans="5:23" x14ac:dyDescent="0.25">
@@ -19131,70 +19131,70 @@
       </c>
       <c r="F11" s="21">
         <f>$F58</f>
-        <v>0</v>
+        <v>253615</v>
       </c>
       <c r="G11" s="19">
         <f>$F57</f>
-        <v>0</v>
+        <v>258591</v>
       </c>
       <c r="H11" s="21">
         <f>$G58</f>
-        <v>0</v>
+        <v>330585</v>
       </c>
       <c r="I11" s="19">
         <f>$G57</f>
-        <v>0</v>
+        <v>420639</v>
       </c>
       <c r="J11" s="21">
         <f>$H58</f>
-        <v>0</v>
+        <v>10474141</v>
       </c>
       <c r="K11" s="19">
         <f>$H57</f>
-        <v>0</v>
+        <v>11287229</v>
       </c>
       <c r="L11" s="21">
         <f>$I58</f>
-        <v>0</v>
+        <v>10783410407</v>
       </c>
       <c r="M11" s="19">
         <f>$I57</f>
-        <v>0</v>
+        <v>11569023373</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167.1778564453125</v>
       </c>
       <c r="Q11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>170.45793457031252</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.239364624023441</v>
       </c>
       <c r="S11" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34.659585571289064</v>
       </c>
       <c r="T11" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>26.970081996917727</v>
       </c>
       <c r="U11" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>29.063719081878663</v>
       </c>
       <c r="V11" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27.115650567132981</v>
       </c>
       <c r="W11" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>29.091130110528322</v>
       </c>
     </row>
     <row r="12" spans="5:23" x14ac:dyDescent="0.25">
@@ -19203,70 +19203,70 @@
       </c>
       <c r="F12" s="21">
         <f>$F60</f>
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="G12" s="19">
         <f>$F59</f>
-        <v>0</v>
+        <v>263327</v>
       </c>
       <c r="H12" s="21">
         <f>$G60</f>
-        <v>0</v>
+        <v>332963</v>
       </c>
       <c r="I12" s="19">
         <f>$G59</f>
-        <v>0</v>
+        <v>296491</v>
       </c>
       <c r="J12" s="21">
         <f>$H60</f>
-        <v>0</v>
+        <v>10787092</v>
       </c>
       <c r="K12" s="19">
         <f>$H59</f>
-        <v>0</v>
+        <v>9296190</v>
       </c>
       <c r="L12" s="21">
         <f>$I60</f>
-        <v>0</v>
+        <v>10695861542</v>
       </c>
       <c r="M12" s="19">
         <f>$I59</f>
-        <v>0</v>
+        <v>9492556815</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124.30283203125001</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>173.57980957031251</v>
       </c>
       <c r="R12" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.435305786132815</v>
       </c>
       <c r="S12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.430105590820315</v>
       </c>
       <c r="T12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27.775905990600588</v>
       </c>
       <c r="U12" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>23.936951637268066</v>
       </c>
       <c r="V12" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26.895502734370531</v>
       </c>
       <c r="W12" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23.869707622099668</v>
       </c>
     </row>
     <row r="13" spans="5:23" x14ac:dyDescent="0.25">
@@ -19275,70 +19275,70 @@
       </c>
       <c r="F13" s="21">
         <f>$F62</f>
-        <v>0</v>
+        <v>335019</v>
       </c>
       <c r="G13" s="19">
         <f>$F61</f>
-        <v>0</v>
+        <v>722949</v>
       </c>
       <c r="H13" s="21">
         <f>$G62</f>
-        <v>0</v>
+        <v>625418</v>
       </c>
       <c r="I13" s="19">
         <f>$G61</f>
-        <v>0</v>
+        <v>1365761</v>
       </c>
       <c r="J13" s="21">
         <f>$H62</f>
-        <v>0</v>
+        <v>20028462</v>
       </c>
       <c r="K13" s="19">
         <f>$H61</f>
-        <v>0</v>
+        <v>42676562</v>
       </c>
       <c r="L13" s="21">
         <f>$I62</f>
-        <v>0</v>
+        <v>20672724827</v>
       </c>
       <c r="M13" s="19">
         <f>$I61</f>
-        <v>0</v>
+        <v>43745143212</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220.83771972656251</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>476.55329589843751</v>
       </c>
       <c r="R13" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.532855224609378</v>
       </c>
       <c r="S13" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112.53523864746094</v>
       </c>
       <c r="T13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>51.571700477600103</v>
       </c>
       <c r="U13" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>109.88876094818116</v>
       </c>
       <c r="V13" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>51.983033337537201</v>
       </c>
       <c r="W13" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>110.0002663884312</v>
       </c>
     </row>
     <row r="14" spans="5:23" x14ac:dyDescent="0.25">
@@ -19347,70 +19347,70 @@
       </c>
       <c r="F14" s="21">
         <f>$F64</f>
-        <v>0</v>
+        <v>259819</v>
       </c>
       <c r="G14" s="19">
         <f>$F63</f>
-        <v>0</v>
+        <v>360713</v>
       </c>
       <c r="H14" s="21">
         <f>$G64</f>
-        <v>0</v>
+        <v>484967</v>
       </c>
       <c r="I14" s="19">
         <f>$G63</f>
-        <v>0</v>
+        <v>611766</v>
       </c>
       <c r="J14" s="21">
         <f>$H64</f>
-        <v>0</v>
+        <v>15527817</v>
       </c>
       <c r="K14" s="19">
         <f>$H63</f>
-        <v>0</v>
+        <v>20129907</v>
       </c>
       <c r="L14" s="21">
         <f>$I64</f>
-        <v>0</v>
+        <v>15848828077</v>
       </c>
       <c r="M14" s="19">
         <f>$I63</f>
-        <v>0</v>
+        <v>20189405102</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>171.26740722656251</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>237.77468261718752</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39.960049438476567</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50.407965087890631</v>
       </c>
       <c r="T14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39.982896709442144</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>51.83291330337525</v>
       </c>
       <c r="V14" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39.853002697136255</v>
       </c>
       <c r="W14" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50.767691596783699</v>
       </c>
     </row>
     <row r="15" spans="5:23" x14ac:dyDescent="0.25">
@@ -19419,70 +19419,70 @@
       </c>
       <c r="F15" s="21">
         <f>$F66</f>
-        <v>0</v>
+        <v>240329</v>
       </c>
       <c r="G15" s="19">
         <f>$F65</f>
-        <v>0</v>
+        <v>543412</v>
       </c>
       <c r="H15" s="21">
         <f>$G66</f>
-        <v>0</v>
+        <v>449736</v>
       </c>
       <c r="I15" s="19">
         <f>$G65</f>
-        <v>0</v>
+        <v>999234</v>
       </c>
       <c r="J15" s="21">
         <f>$H66</f>
-        <v>0</v>
+        <v>14424537</v>
       </c>
       <c r="K15" s="19">
         <f>$H65</f>
-        <v>0</v>
+        <v>31625976</v>
       </c>
       <c r="L15" s="21">
         <f>$I66</f>
-        <v>0</v>
+        <v>14848222960</v>
       </c>
       <c r="M15" s="19">
         <f>$I65</f>
-        <v>0</v>
+        <v>32615801018</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>158.41999511718751</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>358.20615234375003</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37.057104492187506</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82.334344482421884</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>37.142038249969488</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>81.434378814697268</v>
       </c>
       <c r="V15" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>37.336910136044025</v>
       </c>
       <c r="W15" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>82.01474579852075</v>
       </c>
     </row>
     <row r="16" spans="5:23" x14ac:dyDescent="0.25">
@@ -19491,70 +19491,70 @@
       </c>
       <c r="F16" s="21">
         <f>$F68</f>
-        <v>0</v>
+        <v>1399417</v>
       </c>
       <c r="G16" s="19">
         <f>$F67</f>
-        <v>0</v>
+        <v>1128618</v>
       </c>
       <c r="H16" s="21">
         <f>$G68</f>
-        <v>0</v>
+        <v>2640879</v>
       </c>
       <c r="I16" s="19">
         <f>$G67</f>
-        <v>0</v>
+        <v>1828068</v>
       </c>
       <c r="J16" s="21">
         <f>$H68</f>
-        <v>0</v>
+        <v>90240168</v>
       </c>
       <c r="K16" s="19">
         <f>$H67</f>
-        <v>0</v>
+        <v>63503401</v>
       </c>
       <c r="L16" s="21">
         <f>$I68</f>
-        <v>0</v>
+        <v>86764440446</v>
       </c>
       <c r="M16" s="19">
         <f>$I67</f>
-        <v>0</v>
+        <v>65492321276</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>922.46726074218759</v>
       </c>
       <c r="Q16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>743.96206054687502</v>
       </c>
       <c r="R16" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217.60172424316409</v>
       </c>
       <c r="S16" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>150.62816162109377</v>
       </c>
       <c r="T16" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>232.36127243041994</v>
       </c>
       <c r="U16" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>163.51621885299684</v>
       </c>
       <c r="V16" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>218.17534156534822</v>
       </c>
       <c r="W16" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>164.68508862443269</v>
       </c>
     </row>
     <row r="17" spans="5:23" x14ac:dyDescent="0.25">
@@ -19563,70 +19563,70 @@
       </c>
       <c r="F17" s="21">
         <f>$F70</f>
-        <v>0</v>
+        <v>90234</v>
       </c>
       <c r="G17" s="19">
         <f>$F69</f>
-        <v>0</v>
+        <v>115842</v>
       </c>
       <c r="H17" s="21">
         <f>$G70</f>
-        <v>0</v>
+        <v>137123</v>
       </c>
       <c r="I17" s="19">
         <f>$G69</f>
-        <v>0</v>
+        <v>213180</v>
       </c>
       <c r="J17" s="21">
         <f>$H70</f>
-        <v>0</v>
+        <v>4431063</v>
       </c>
       <c r="K17" s="19">
         <f>$H69</f>
-        <v>0</v>
+        <v>6852396</v>
       </c>
       <c r="L17" s="21">
         <f>$I70</f>
-        <v>0</v>
+        <v>4828839425</v>
       </c>
       <c r="M17" s="19">
         <f>$I69</f>
-        <v>0</v>
+        <v>7032525816</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.480419921875004</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76.360693359375006</v>
       </c>
       <c r="R17" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.298587036132814</v>
       </c>
       <c r="S17" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.56549072265625</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.409635639190675</v>
       </c>
       <c r="U17" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17.644375991821292</v>
       </c>
       <c r="V17" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.142459347378463</v>
       </c>
       <c r="W17" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17.683785132318736</v>
       </c>
     </row>
     <row r="18" spans="5:23" x14ac:dyDescent="0.25">
@@ -19635,70 +19635,70 @@
       </c>
       <c r="F18" s="21">
         <f>$F72</f>
-        <v>0</v>
+        <v>160298</v>
       </c>
       <c r="G18" s="19">
         <f>$F71</f>
-        <v>0</v>
+        <v>231875</v>
       </c>
       <c r="H18" s="21">
         <f>$G72</f>
-        <v>0</v>
+        <v>301132</v>
       </c>
       <c r="I18" s="19">
         <f>$G71</f>
-        <v>0</v>
+        <v>431788</v>
       </c>
       <c r="J18" s="21">
         <f>$H72</f>
-        <v>0</v>
+        <v>9652007</v>
       </c>
       <c r="K18" s="19">
         <f>$H71</f>
-        <v>0</v>
+        <v>13844224</v>
       </c>
       <c r="L18" s="21">
         <f>$I72</f>
-        <v>0</v>
+        <v>9965751706</v>
       </c>
       <c r="M18" s="19">
         <f>$I71</f>
-        <v>0</v>
+        <v>14261804383</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.66518554687501</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>152.8472900390625</v>
       </c>
       <c r="R18" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.812512207031251</v>
       </c>
       <c r="S18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35.578234863281253</v>
       </c>
       <c r="T18" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24.85315217971802</v>
       </c>
       <c r="U18" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.647778320312504</v>
       </c>
       <c r="V18" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.059589749388397</v>
       </c>
       <c r="W18" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35.862319016922271</v>
       </c>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.25">
@@ -19707,70 +19707,70 @@
       </c>
       <c r="F19" s="21">
         <f>$F74</f>
-        <v>0</v>
+        <v>3697141</v>
       </c>
       <c r="G19" s="19">
         <f>$F73</f>
-        <v>0</v>
+        <v>161117</v>
       </c>
       <c r="H19" s="21">
         <f>$G74</f>
-        <v>0</v>
+        <v>9814332</v>
       </c>
       <c r="I19" s="19">
         <f>$G73</f>
-        <v>0</v>
+        <v>1233102</v>
       </c>
       <c r="J19" s="21">
         <f>$H74</f>
-        <v>0</v>
+        <v>331083400</v>
       </c>
       <c r="K19" s="19">
         <f>$H73</f>
-        <v>0</v>
+        <v>41194894</v>
       </c>
       <c r="L19" s="21">
         <f>$I74</f>
-        <v>0</v>
+        <v>328515946496</v>
       </c>
       <c r="M19" s="19">
         <f>$I73</f>
-        <v>0</v>
+        <v>40193846229</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2437.0802490234378</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106.20505371093751</v>
       </c>
       <c r="R19" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>808.67603759765632</v>
       </c>
       <c r="S19" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>101.60447387695314</v>
       </c>
       <c r="T19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>852.51348495483398</v>
       </c>
       <c r="U19" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>106.07358341217042</v>
       </c>
       <c r="V19" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>826.07665615081794</v>
       </c>
       <c r="W19" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>101.07027815496549</v>
       </c>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.25">
@@ -19779,70 +19779,70 @@
       </c>
       <c r="F20" s="21">
         <f>$F76</f>
-        <v>0</v>
+        <v>17715</v>
       </c>
       <c r="G20" s="19">
         <f>$F75</f>
-        <v>0</v>
+        <v>25711</v>
       </c>
       <c r="H20" s="21">
         <f>$G76</f>
-        <v>0</v>
+        <v>144146</v>
       </c>
       <c r="I20" s="19">
         <f>$G75</f>
-        <v>0</v>
+        <v>203821</v>
       </c>
       <c r="J20" s="21">
         <f>$H76</f>
-        <v>0</v>
+        <v>4624490</v>
       </c>
       <c r="K20" s="19">
         <f>$H75</f>
-        <v>0</v>
+        <v>6518692</v>
       </c>
       <c r="L20" s="21">
         <f>$I76</f>
-        <v>0</v>
+        <v>4708808834</v>
       </c>
       <c r="M20" s="19">
         <f>$I75</f>
-        <v>0</v>
+        <v>6722369624</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.6773681640625</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.948168945312503</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.877264404296875</v>
       </c>
       <c r="S20" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.79433288574219</v>
       </c>
       <c r="T20" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.907694816589355</v>
       </c>
       <c r="U20" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16.785114669799807</v>
       </c>
       <c r="V20" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11.840633909963072</v>
       </c>
       <c r="W20" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.903875381499532</v>
       </c>
     </row>
     <row r="21" spans="5:23" x14ac:dyDescent="0.25">
@@ -19866,7 +19866,7 @@
       <c r="W21" s="28"/>
     </row>
     <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="43" t="s">
         <v>55</v>
       </c>
       <c r="O23" t="s">
@@ -19877,43 +19877,43 @@
       </c>
     </row>
     <row r="24" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E24" s="49"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47" t="s">
+      <c r="G25" s="45"/>
+      <c r="H25" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47" t="s">
+      <c r="I25" s="45"/>
+      <c r="J25" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="47"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="13" t="s">
@@ -19948,104 +19948,104 @@
       <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="20" t="e">
+      <c r="F28" s="20">
         <f>(((4*1024*4)/(1024*1024))/F5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="20" t="e">
+        <v>48.014577994112265</v>
+      </c>
+      <c r="G28" s="20">
         <f>(((4096*8)/(1024*1024))/G5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="20" t="e">
+        <v>66.972131021062467</v>
+      </c>
+      <c r="H28" s="20">
         <f>(((32*1024*4)/(1024*1024))/H5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="20" t="e">
+        <v>208.27813962633235</v>
+      </c>
+      <c r="I28" s="20">
         <f>(((32*1024*8)/(1024*1024))/I5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="20" t="e">
+        <v>295.1621739048303</v>
+      </c>
+      <c r="J28" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/J5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="20" t="e">
+        <v>412.85560091519761</v>
+      </c>
+      <c r="K28" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/K5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="20" t="e">
+        <v>287.84477912716608</v>
+      </c>
+      <c r="L28" s="20">
         <f>(((1*1024*1024*1024*4)/(1024*1024))/L5)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="20" t="e">
+        <v>206.2576359238756</v>
+      </c>
+      <c r="M28" s="20">
         <f>(((1*1024*1024*1024*8)/(1024*1024))/M5)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>288.43568517610123</v>
       </c>
     </row>
     <row r="29" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="20" t="e">
+      <c r="F29" s="20">
         <f>(((4*1024*4)/(1024*1024))/F6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="20" t="e">
+        <v>63.10428664895035</v>
+      </c>
+      <c r="G29" s="20">
         <f>(((4096*8)/(1024*1024))/G6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="20" t="e">
+        <v>74.894249319960224</v>
+      </c>
+      <c r="H29" s="20">
         <f>(((32*1024*4)/(1024*1024))/H6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="20" t="e">
+        <v>284.81784190103377</v>
+      </c>
+      <c r="I29" s="20">
         <f>(((32*1024*8)/(1024*1024))/I6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="20" t="e">
+        <v>350.77577570555036</v>
+      </c>
+      <c r="J29" s="20">
         <f>(((1*1024*1024*4)/(1024*1024))/J6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="20" t="e">
+        <v>285.26959117444346</v>
+      </c>
+      <c r="K29" s="20">
         <f>(((1*1024*1024*8)/(1024*1024))/K6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="20" t="e">
+        <v>337.8398209347597</v>
+      </c>
+      <c r="L29" s="20">
         <f>(((1*1024*1024*1024*4)/(1024*1024))/L6)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="20" t="e">
+        <v>301.58717992652271</v>
+      </c>
+      <c r="M29" s="20">
         <f>(((1*1024*1024*1024*8)/(1024*1024))/M6)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>346.80594196411323</v>
       </c>
     </row>
     <row r="30" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="20" t="e">
+      <c r="F30" s="20">
         <f>(((4*1024)/(1024*1024))/F7)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>90.976314134662417</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="20" t="e">
+      <c r="H30" s="20">
         <f>(((32*1024)/(1024*1024))/H7)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>90.248276618909685</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="20" t="e">
+      <c r="J30" s="20">
         <f>(((1*1024*1024)/(1024*1024))/J7)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>90.125149585217031</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="20" t="e">
+      <c r="L30" s="20">
         <f>(((1*1024*1024*1024)/(1024*1024))/L7)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>90.13117485224177</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>94</v>
@@ -20055,485 +20055,485 @@
       <c r="E31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="20" t="e">
+      <c r="F31" s="20">
         <f t="shared" ref="F31" si="8">(((4*1024*4)/(1024*1024))/F8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="20" t="e">
+        <v>3.3765736453942887</v>
+      </c>
+      <c r="G31" s="20">
         <f t="shared" ref="G31" si="9">(((4096*8)/(1024*1024))/G8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="20" t="e">
+        <v>39.861931026741296</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" ref="H31" si="10">(((32*1024*4)/(1024*1024))/H8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="20" t="e">
+        <v>12.58331032265319</v>
+      </c>
+      <c r="I31" s="20">
         <f t="shared" ref="I31" si="11">(((32*1024*8)/(1024*1024))/I8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="20" t="e">
+        <v>205.76453458942979</v>
+      </c>
+      <c r="J31" s="20">
         <f t="shared" ref="J31" si="12">(((1*1024*1024*4)/(1024*1024))/J8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="20" t="e">
+        <v>12.564021187098412</v>
+      </c>
+      <c r="K31" s="20">
         <f t="shared" ref="K31" si="13">(((1*1024*1024*8)/(1024*1024))/K8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="20" t="e">
+        <v>207.70927514344143</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" ref="L31" si="14">(((1*1024*1024*1024*4)/(1024*1024))/L8)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="20" t="e">
+        <v>12.488849575379838</v>
+      </c>
+      <c r="M31" s="20">
         <f t="shared" ref="M31" si="15">(((1*1024*1024*1024*8)/(1024*1024))/M8)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>206.90296147804213</v>
       </c>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="20" t="e">
+      <c r="F32" s="20">
         <f t="shared" ref="F32:F43" si="16">(((4*1024*4)/(1024*1024))/F9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="20" t="e">
+        <v>210.14336821152864</v>
+      </c>
+      <c r="G32" s="20">
         <f t="shared" ref="G32:G43" si="17">(((4096*8)/(1024*1024))/G9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="20" t="e">
+        <v>273.89936280052234</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" ref="H32:H43" si="18">(((32*1024*4)/(1024*1024))/H9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="20" t="e">
+        <v>901.45964345468178</v>
+      </c>
+      <c r="I32" s="20">
         <f t="shared" ref="I32:I43" si="19">(((32*1024*8)/(1024*1024))/I9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="20" t="e">
+        <v>1086.17730758369</v>
+      </c>
+      <c r="J32" s="20">
         <f t="shared" ref="J32:J43" si="20">(((1*1024*1024*4)/(1024*1024))/J9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="20" t="e">
+        <v>892.19476790222268</v>
+      </c>
+      <c r="K32" s="20">
         <f t="shared" ref="K32:K43" si="21">(((1*1024*1024*8)/(1024*1024))/K9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="20" t="e">
+        <v>1132.3430144414781</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" ref="L32:L43" si="22">(((1*1024*1024*1024*4)/(1024*1024))/L9)*10^9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="20" t="e">
+        <v>900.32897963766175</v>
+      </c>
+      <c r="M32" s="20">
         <f t="shared" ref="M32:M43" si="23">(((1*1024*1024*1024*8)/(1024*1024))/M9)*10^9</f>
-        <v>#DIV/0!</v>
+        <v>1156.971481508846</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="20" t="e">
+      <c r="F33" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="20" t="e">
+        <v>336.52085890891857</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="20" t="e">
+        <v>598.78518461744807</v>
+      </c>
+      <c r="H33" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="20" t="e">
+        <v>1437.558221107955</v>
+      </c>
+      <c r="I33" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="20" t="e">
+        <v>2281.2092233851317</v>
+      </c>
+      <c r="J33" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="20" t="e">
+        <v>1414.1441281553975</v>
+      </c>
+      <c r="K33" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="20" t="e">
+        <v>2598.695195142519</v>
+      </c>
+      <c r="L33" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="20" t="e">
+        <v>1419.1378576545155</v>
+      </c>
+      <c r="M33" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>2495.0476327359793</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="20" t="e">
+      <c r="F34" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="20" t="e">
+        <v>61.609131951974447</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="20" t="e">
+        <v>120.84720659265017</v>
+      </c>
+      <c r="H34" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="20" t="e">
+        <v>378.11757944250348</v>
+      </c>
+      <c r="I34" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="20" t="e">
+        <v>594.33385872446445</v>
+      </c>
+      <c r="J34" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="20" t="e">
+        <v>381.89289221903732</v>
+      </c>
+      <c r="K34" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="20" t="e">
+        <v>708.76563237974528</v>
+      </c>
+      <c r="L34" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="20" t="e">
+        <v>379.84272557604794</v>
+      </c>
+      <c r="M34" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>708.09780012361637</v>
       </c>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="20" t="e">
+      <c r="F35" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="20" t="e">
+        <v>82.859597395159412</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="20" t="e">
+        <v>118.67374025451245</v>
+      </c>
+      <c r="H35" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="20" t="e">
+        <v>375.41708838519594</v>
+      </c>
+      <c r="I35" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="20" t="e">
+        <v>843.19591488443166</v>
+      </c>
+      <c r="J35" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="20" t="e">
+        <v>370.81356124523643</v>
+      </c>
+      <c r="K35" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="20" t="e">
+        <v>860.5676088806274</v>
+      </c>
+      <c r="L35" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="20" t="e">
+        <v>382.95185328606044</v>
+      </c>
+      <c r="M35" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>862.99193775223148</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="20" t="e">
+      <c r="F36" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="20" t="e">
+        <v>46.6391458394897</v>
+      </c>
+      <c r="G36" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="20" t="e">
+        <v>43.225732382228898</v>
+      </c>
+      <c r="H36" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="20" t="e">
+        <v>199.86632939889802</v>
+      </c>
+      <c r="I36" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="20" t="e">
+        <v>183.04813214025</v>
+      </c>
+      <c r="J36" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="20" t="e">
+        <v>199.71578446712482</v>
+      </c>
+      <c r="K36" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="20" t="e">
+        <v>187.45652473130335</v>
+      </c>
+      <c r="L36" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="20" t="e">
+        <v>198.13546759207776</v>
+      </c>
+      <c r="M36" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>187.26650317040912</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="20" t="e">
+      <c r="F37" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="20" t="e">
+        <v>60.138019159491797</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="20" t="e">
+        <v>86.633972160692849</v>
+      </c>
+      <c r="H37" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="20" t="e">
+        <v>257.74949635748413</v>
+      </c>
+      <c r="I37" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="20" t="e">
+        <v>408.65298169561567</v>
+      </c>
+      <c r="J37" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="20" t="e">
+        <v>257.60221156650675</v>
+      </c>
+      <c r="K37" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="20" t="e">
+        <v>397.41862692162465</v>
+      </c>
+      <c r="L37" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="20" t="e">
+        <v>258.4418216981079</v>
+      </c>
+      <c r="M37" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>405.75737415801746</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="20" t="e">
+      <c r="F38" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="20" t="e">
+        <v>65.015041880089385</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="20" t="e">
+        <v>57.507011254812184</v>
+      </c>
+      <c r="H38" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="20" t="e">
+        <v>277.94083640180014</v>
+      </c>
+      <c r="I38" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="20" t="e">
+        <v>250.19164680144991</v>
+      </c>
+      <c r="J38" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="20" t="e">
+        <v>277.30526116713486</v>
+      </c>
+      <c r="K38" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="20" t="e">
+        <v>252.95662021624253</v>
+      </c>
+      <c r="L38" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="20" t="e">
+        <v>275.85792663770718</v>
+      </c>
+      <c r="M38" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>251.16660466131128</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="20" t="e">
+      <c r="F39" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="20" t="e">
+        <v>11.165363862236916</v>
+      </c>
+      <c r="G39" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="20" t="e">
+        <v>27.688730819462386</v>
+      </c>
+      <c r="H39" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="20" t="e">
+        <v>47.332725202479928</v>
+      </c>
+      <c r="I39" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="20" t="e">
+        <v>136.75640074658054</v>
+      </c>
+      <c r="J39" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="20" t="e">
+        <v>44.326158612647973</v>
+      </c>
+      <c r="K39" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="20" t="e">
+        <v>125.97750473238433</v>
+      </c>
+      <c r="L39" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="20" t="e">
+        <v>47.208280015927116</v>
+      </c>
+      <c r="M39" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>125.0833661167237</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="20" t="e">
+      <c r="F40" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="20" t="e">
+        <v>173.16089278985748</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="20" t="e">
+        <v>269.76398888140739</v>
+      </c>
+      <c r="H40" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="20" t="e">
+        <v>911.59032401566469</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="20" t="e">
+        <v>1172.7178909841448</v>
+      </c>
+      <c r="J40" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="20" t="e">
+        <v>902.71792569864158</v>
+      </c>
+      <c r="K40" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="20" t="e">
+        <v>1167.474851132363</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="20" t="e">
+        <v>848.23694463602919</v>
+      </c>
+      <c r="M40" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1164.8730789387264</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="20" t="e">
+      <c r="F41" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="20" t="e">
+        <v>97.47470336498273</v>
+      </c>
+      <c r="G41" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="20" t="e">
+        <v>134.77088948787062</v>
+      </c>
+      <c r="H41" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="20" t="e">
+        <v>415.10035466174304</v>
+      </c>
+      <c r="I41" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="20" t="e">
+        <v>578.98783662352821</v>
+      </c>
+      <c r="J41" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="20" t="e">
+        <v>414.42158092094212</v>
+      </c>
+      <c r="K41" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="20" t="e">
+        <v>577.85831838606475</v>
+      </c>
+      <c r="L41" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="20" t="e">
+        <v>411.00763101833593</v>
+      </c>
+      <c r="M41" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>574.4013716640809</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="20" t="e">
+      <c r="F42" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="20" t="e">
+        <v>4.2262385989606566</v>
+      </c>
+      <c r="G42" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="20" t="e">
+        <v>193.95842772643482</v>
+      </c>
+      <c r="H42" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="20" t="e">
+        <v>12.736475595078707</v>
+      </c>
+      <c r="I42" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="20" t="e">
+        <v>202.74073028832976</v>
+      </c>
+      <c r="J42" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="20" t="e">
+        <v>12.081548032912554</v>
+      </c>
+      <c r="K42" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="20" t="e">
+        <v>194.1988247378425</v>
+      </c>
+      <c r="L42" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="20" t="e">
+        <v>12.468192316654781</v>
+      </c>
+      <c r="M42" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>203.81229388516303</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="20" t="e">
+      <c r="F43" s="20">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="20" t="e">
+        <v>882.02088625458646</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="20" t="e">
+        <v>1215.433083116176</v>
+      </c>
+      <c r="H43" s="20">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="20" t="e">
+        <v>867.17633510468545</v>
+      </c>
+      <c r="I43" s="20">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="20" t="e">
+        <v>1226.5664480107544</v>
+      </c>
+      <c r="J43" s="20">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="20" t="e">
+        <v>864.960244264773</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="20" t="e">
+        <v>1227.240065951881</v>
+      </c>
+      <c r="L43" s="20">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="20" t="e">
+        <v>869.8590544650682</v>
+      </c>
+      <c r="M43" s="20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1218.6179068097015</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -20553,287 +20553,542 @@
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="41"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="F46" s="1">
+        <v>466612</v>
+      </c>
+      <c r="G46" s="1">
+        <v>846992</v>
+      </c>
+      <c r="H46" s="1">
+        <v>27792757</v>
+      </c>
+      <c r="I46" s="1">
+        <v>28401478808</v>
+      </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="F47" s="1">
+        <v>325422</v>
+      </c>
+      <c r="G47" s="1">
+        <v>600159</v>
+      </c>
+      <c r="H47" s="1">
+        <v>19377235</v>
+      </c>
+      <c r="I47" s="1">
+        <v>19858658719</v>
+      </c>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="F48" s="1">
+        <v>417255</v>
+      </c>
+      <c r="G48" s="1">
+        <v>712706</v>
+      </c>
+      <c r="H48" s="1">
+        <v>23679861</v>
+      </c>
+      <c r="I48" s="1">
+        <v>23621279248</v>
+      </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="F49" s="1">
+        <v>247606</v>
+      </c>
+      <c r="G49" s="1">
+        <v>438877</v>
+      </c>
+      <c r="H49" s="1">
+        <v>14021824</v>
+      </c>
+      <c r="I49" s="1">
+        <v>13581479163</v>
+      </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="F50" s="1">
+        <v>42937</v>
+      </c>
+      <c r="G50" s="1">
+        <v>346267</v>
+      </c>
+      <c r="H50" s="1">
+        <v>11095682</v>
+      </c>
+      <c r="I50" s="1">
+        <v>11361218820</v>
+      </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="F51" s="1">
+        <v>783956</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1214981</v>
+      </c>
+      <c r="H51" s="1">
+        <v>38515372</v>
+      </c>
+      <c r="I51" s="1">
+        <v>39593440043</v>
+      </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="F52" s="1">
+        <v>4627472</v>
+      </c>
+      <c r="G52" s="1">
+        <v>9933793</v>
+      </c>
+      <c r="H52" s="1">
+        <v>318369409</v>
+      </c>
+      <c r="I52" s="1">
+        <v>327972562667</v>
+      </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="F53" s="1">
+        <v>114093</v>
+      </c>
+      <c r="G53" s="1">
+        <v>230165</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7064997</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7080554820</v>
+      </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="F54" s="1">
+        <v>74354</v>
+      </c>
+      <c r="G54" s="1">
+        <v>138664</v>
+      </c>
+      <c r="H54" s="1">
+        <v>4483326</v>
+      </c>
+      <c r="I54" s="1">
+        <v>4549448138</v>
+      </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="F55" s="1">
+        <v>52189</v>
+      </c>
+      <c r="G55" s="1">
+        <v>109591</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3078468</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3283304051</v>
+      </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="F56" s="1">
+        <v>46431</v>
+      </c>
+      <c r="G56" s="1">
+        <v>86953</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2828566</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2886259413</v>
+      </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="F57" s="1">
+        <v>258591</v>
+      </c>
+      <c r="G57" s="1">
+        <v>420639</v>
+      </c>
+      <c r="H57" s="1">
+        <v>11287229</v>
+      </c>
+      <c r="I57" s="1">
+        <v>11569023373</v>
+      </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="F58" s="1">
+        <v>253615</v>
+      </c>
+      <c r="G58" s="1">
+        <v>330585</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10474141</v>
+      </c>
+      <c r="I58" s="1">
+        <v>10783410407</v>
+      </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="F59" s="1">
+        <v>263327</v>
+      </c>
+      <c r="G59" s="1">
+        <v>296491</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9296190</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9492556815</v>
+      </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="F60" s="1">
+        <v>188572</v>
+      </c>
+      <c r="G60" s="1">
+        <v>332963</v>
+      </c>
+      <c r="H60" s="1">
+        <v>10787092</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10695861542</v>
+      </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="F61" s="1">
+        <v>722949</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1365761</v>
+      </c>
+      <c r="H61" s="1">
+        <v>42676562</v>
+      </c>
+      <c r="I61" s="1">
+        <v>43745143212</v>
+      </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="F62" s="1">
+        <v>335019</v>
+      </c>
+      <c r="G62" s="1">
+        <v>625418</v>
+      </c>
+      <c r="H62" s="1">
+        <v>20028462</v>
+      </c>
+      <c r="I62" s="1">
+        <v>20672724827</v>
+      </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="F63" s="1">
+        <v>360713</v>
+      </c>
+      <c r="G63" s="1">
+        <v>611766</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20129907</v>
+      </c>
+      <c r="I63" s="1">
+        <v>20189405102</v>
+      </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="F64" s="1">
+        <v>259819</v>
+      </c>
+      <c r="G64" s="1">
+        <v>484967</v>
+      </c>
+      <c r="H64" s="1">
+        <v>15527817</v>
+      </c>
+      <c r="I64" s="1">
+        <v>15848828077</v>
+      </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="F65" s="1">
+        <v>543412</v>
+      </c>
+      <c r="G65" s="1">
+        <v>999234</v>
+      </c>
+      <c r="H65" s="1">
+        <v>31625976</v>
+      </c>
+      <c r="I65" s="1">
+        <v>32615801018</v>
+      </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="F66" s="1">
+        <v>240329</v>
+      </c>
+      <c r="G66" s="1">
+        <v>449736</v>
+      </c>
+      <c r="H66" s="1">
+        <v>14424537</v>
+      </c>
+      <c r="I66" s="1">
+        <v>14848222960</v>
+      </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="F67" s="1">
+        <v>1128618</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1828068</v>
+      </c>
+      <c r="H67" s="1">
+        <v>63503401</v>
+      </c>
+      <c r="I67" s="1">
+        <v>65492321276</v>
+      </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="F68" s="1">
+        <v>1399417</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2640879</v>
+      </c>
+      <c r="H68" s="1">
+        <v>90240168</v>
+      </c>
+      <c r="I68" s="1">
+        <v>86764440446</v>
+      </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="F69" s="1">
+        <v>115842</v>
+      </c>
+      <c r="G69" s="1">
+        <v>213180</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6852396</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7032525816</v>
+      </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="F70" s="1">
+        <v>90234</v>
+      </c>
+      <c r="G70" s="1">
+        <v>137123</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4431063</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4828839425</v>
+      </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="F71" s="1">
+        <v>231875</v>
+      </c>
+      <c r="G71" s="1">
+        <v>431788</v>
+      </c>
+      <c r="H71" s="1">
+        <v>13844224</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14261804383</v>
+      </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="F72" s="1">
+        <v>160298</v>
+      </c>
+      <c r="G72" s="1">
+        <v>301132</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9652007</v>
+      </c>
+      <c r="I72" s="1">
+        <v>9965751706</v>
+      </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="F73" s="1">
+        <v>161117</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1233102</v>
+      </c>
+      <c r="H73" s="1">
+        <v>41194894</v>
+      </c>
+      <c r="I73" s="1">
+        <v>40193846229</v>
+      </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="F74" s="1">
+        <v>3697141</v>
+      </c>
+      <c r="G74" s="1">
+        <v>9814332</v>
+      </c>
+      <c r="H74" s="1">
+        <v>331083400</v>
+      </c>
+      <c r="I74" s="1">
+        <v>328515946496</v>
+      </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="F75" s="1">
+        <v>25711</v>
+      </c>
+      <c r="G75" s="1">
+        <v>203821</v>
+      </c>
+      <c r="H75" s="1">
+        <v>6518692</v>
+      </c>
+      <c r="I75" s="1">
+        <v>6722369624</v>
+      </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="F76" s="1">
+        <v>17715</v>
+      </c>
+      <c r="G76" s="1">
+        <v>144146</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4624490</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4708808834</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="F3:M3"/>
@@ -20844,13 +21099,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/Benchmark_April_6th _no_i.xlsx
+++ b/Results/Benchmark_April_6th _no_i.xlsx
@@ -12,14 +12,15 @@
     <sheet name="TI DSP 4 Cores" sheetId="3" r:id="rId3"/>
     <sheet name="TI DSP 7 Cores" sheetId="4" r:id="rId4"/>
     <sheet name="TI DSP 8 Cores" sheetId="5" r:id="rId5"/>
-    <sheet name="Mac i7 x86 @2.7GHz" sheetId="2" r:id="rId6"/>
+    <sheet name="Mac i7-2620M x86 @2.7GHz run 1" sheetId="2" r:id="rId6"/>
+    <sheet name="Mac i7-2620M x86 @2.7GHz run 2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="138">
   <si>
     <t>1MB</t>
   </si>
@@ -795,32 +796,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -831,6 +814,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +831,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,29 +1180,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="14"/>
@@ -1397,69 +1398,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="45"/>
+      <c r="W7" s="47"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -2594,11 +2595,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -2671,9 +2672,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2694,10 +2695,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="E27" s="43" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="E27" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -2728,7 +2729,7 @@
       <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -2761,22 +2762,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -2801,16 +2802,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2850,17 +2851,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3499,62 +3500,62 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="44"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45" t="s">
+      <c r="G52" s="47"/>
+      <c r="H52" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45" t="s">
+      <c r="I52" s="47"/>
+      <c r="J52" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45" t="s">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="45"/>
+      <c r="M52" s="47"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -4174,7 +4175,7 @@
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4194,7 +4195,7 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="49"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
@@ -4723,6 +4724,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="E48:L48"/>
@@ -4739,20 +4754,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4799,29 +4800,29 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="40"/>
@@ -5017,69 +5018,69 @@
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="45"/>
+      <c r="W7" s="47"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="4:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
@@ -6214,11 +6215,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="E25" s="35" t="s">
         <v>31</v>
       </c>
@@ -6291,9 +6292,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -6314,10 +6315,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="E27" s="43" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="E27" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="27"/>
@@ -6348,7 +6349,7 @@
       <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -6381,22 +6382,22 @@
       <c r="E29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="O29" s="3"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -6421,16 +6422,16 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -6470,17 +6471,17 @@
       <c r="M31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7119,62 +7120,62 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
     </row>
     <row r="50" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="44"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45" t="s">
+      <c r="G52" s="47"/>
+      <c r="H52" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45" t="s">
+      <c r="I52" s="47"/>
+      <c r="J52" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45" t="s">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="45"/>
+      <c r="M52" s="47"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
     </row>
     <row r="54" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="13" t="s">
@@ -7794,7 +7795,7 @@
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -7814,7 +7815,7 @@
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="49"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="1" t="s">
         <v>108</v>
       </c>
@@ -8335,18 +8336,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
     <mergeCell ref="O31:W31"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
@@ -8357,14 +8354,18 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8410,69 +8411,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -9607,11 +9608,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -9684,9 +9685,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9707,10 +9708,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -9741,7 +9742,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -9774,22 +9775,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -9814,16 +9815,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -9863,17 +9864,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -10512,62 +10513,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -11187,7 +11188,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -11207,7 +11208,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -11728,11 +11729,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -11746,14 +11750,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11799,69 +11800,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -12996,11 +12997,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -13073,9 +13074,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -13096,10 +13097,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -13130,7 +13131,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -13163,22 +13164,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -13203,16 +13204,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13252,17 +13253,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -13901,62 +13902,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -14576,7 +14577,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -14596,7 +14597,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -15117,11 +15118,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -15135,14 +15139,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15188,69 +15189,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -16385,11 +16386,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
@@ -16462,9 +16463,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -16485,10 +16486,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="27"/>
@@ -16519,7 +16520,7 @@
       <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -16552,22 +16553,22 @@
       <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="47"/>
       <c r="O24" s="3"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -16592,16 +16593,16 @@
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -16641,17 +16642,17 @@
       <c r="M26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -17290,62 +17291,62 @@
       </c>
     </row>
     <row r="43" spans="5:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
     <row r="45" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="44"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
@@ -17965,7 +17966,7 @@
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -17985,7 +17986,7 @@
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="49"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -18506,11 +18507,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
@@ -18524,14 +18528,11 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18545,7 +18546,7 @@
   <dimension ref="D2:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18577,69 +18578,69 @@
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
@@ -19866,7 +19867,7 @@
       <c r="W21" s="28"/>
     </row>
     <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="48" t="s">
         <v>55</v>
       </c>
       <c r="O23" t="s">
@@ -19877,43 +19878,43 @@
       </c>
     </row>
     <row r="24" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E24" s="44"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45" t="s">
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="13" t="s">
@@ -20533,7 +20534,7 @@
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -20553,7 +20554,7 @@
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="49"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
@@ -21082,13 +21083,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="F3:M3"/>
@@ -21099,6 +21093,2580 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="D2:W76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="O2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="O3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+    </row>
+    <row r="4" spans="5:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="20">
+        <f>$F47</f>
+        <v>325573</v>
+      </c>
+      <c r="G5" s="20">
+        <f>$F46</f>
+        <v>467871</v>
+      </c>
+      <c r="H5" s="20">
+        <f>$G47</f>
+        <v>642006</v>
+      </c>
+      <c r="I5" s="20">
+        <f>$G46</f>
+        <v>905224</v>
+      </c>
+      <c r="J5" s="20">
+        <f>$H47</f>
+        <v>19337433</v>
+      </c>
+      <c r="K5" s="20">
+        <f>$H46</f>
+        <v>27688889</v>
+      </c>
+      <c r="L5" s="20">
+        <f>$I47</f>
+        <v>19813662908</v>
+      </c>
+      <c r="M5" s="20">
+        <f>$I46</f>
+        <v>28347256279</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="22">
+        <f>F5*($P$23)/4096</f>
+        <v>214.61110839843752</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>G5*($P$23)/4096</f>
+        <v>308.41105957031255</v>
+      </c>
+      <c r="R5" s="22">
+        <f>H5*($P$23)/32768</f>
+        <v>52.899664306640631</v>
+      </c>
+      <c r="S5" s="22">
+        <f>I5*($P$23)/32768</f>
+        <v>74.588159179687509</v>
+      </c>
+      <c r="T5" s="22">
+        <f>J5*($P$23)/(1048576)</f>
+        <v>49.792355632781984</v>
+      </c>
+      <c r="U5" s="22">
+        <f>K5*($P$23)/(1048576)</f>
+        <v>71.296692180633556</v>
+      </c>
+      <c r="V5" s="22">
+        <f>L5*($P$23)/1073741824</f>
+        <v>49.822861190512782</v>
+      </c>
+      <c r="W5" s="22">
+        <f>M5*($P$23)/1073741824</f>
+        <v>71.28118719281629</v>
+      </c>
+    </row>
+    <row r="6" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="19">
+        <f>$F49</f>
+        <v>245872</v>
+      </c>
+      <c r="G6" s="19">
+        <f>$F48</f>
+        <v>416389</v>
+      </c>
+      <c r="H6" s="19">
+        <f>$G49</f>
+        <v>467775</v>
+      </c>
+      <c r="I6" s="19">
+        <f>$G48</f>
+        <v>762633</v>
+      </c>
+      <c r="J6" s="19">
+        <f>$H49</f>
+        <v>13262745</v>
+      </c>
+      <c r="K6" s="19">
+        <f>$H48</f>
+        <v>23151129</v>
+      </c>
+      <c r="L6" s="19">
+        <f>$I49</f>
+        <v>13519289191</v>
+      </c>
+      <c r="M6" s="19">
+        <f>$I48</f>
+        <v>24236669408</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" ref="P6:Q20" si="0">F6*($P$23)/4096</f>
+        <v>162.07382812500001</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" si="0"/>
+        <v>274.47517089843751</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" ref="R6:S20" si="1">H6*($P$23)/32768</f>
+        <v>38.543472290039062</v>
+      </c>
+      <c r="S6" s="22">
+        <f t="shared" si="1"/>
+        <v>62.83902282714844</v>
+      </c>
+      <c r="T6" s="22">
+        <f t="shared" ref="T6:U20" si="2">J6*($P$23)/(1048576)</f>
+        <v>34.150516033172607</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="2"/>
+        <v>59.612320232391362</v>
+      </c>
+      <c r="V6" s="22">
+        <f t="shared" ref="V6:W20" si="3">L6*($P$23)/1073741824</f>
+        <v>33.995211884099994</v>
+      </c>
+      <c r="W6" s="22">
+        <f t="shared" si="3"/>
+        <v>60.944824853539473</v>
+      </c>
+    </row>
+    <row r="7" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="19">
+        <f>$F50</f>
+        <v>45946</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="19">
+        <f>$G50</f>
+        <v>345899</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="19">
+        <f>$H50</f>
+        <v>11067563</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="19">
+        <f>$I50</f>
+        <v>11415155203</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="0"/>
+        <v>30.286669921875003</v>
+      </c>
+      <c r="Q7" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="1"/>
+        <v>28.501199340820314</v>
+      </c>
+      <c r="S7" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="2"/>
+        <v>28.498096561431886</v>
+      </c>
+      <c r="U7" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" s="22">
+        <f t="shared" si="3"/>
+        <v>28.704217679891737</v>
+      </c>
+      <c r="W7" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="21">
+        <f>$F52</f>
+        <v>4612488</v>
+      </c>
+      <c r="G8" s="19">
+        <f>$F51</f>
+        <v>724337</v>
+      </c>
+      <c r="H8" s="21">
+        <f>$G52</f>
+        <v>10222808</v>
+      </c>
+      <c r="I8" s="19">
+        <f>$G51</f>
+        <v>1250016</v>
+      </c>
+      <c r="J8" s="21">
+        <f>$H52</f>
+        <v>319591894</v>
+      </c>
+      <c r="K8" s="19">
+        <f>$H51</f>
+        <v>38635284</v>
+      </c>
+      <c r="L8" s="21">
+        <f>$I52</f>
+        <v>328405658363</v>
+      </c>
+      <c r="M8" s="19">
+        <f>$I51</f>
+        <v>39538634572</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="0"/>
+        <v>3040.4583984375004</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="0"/>
+        <v>477.46823730468753</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="1"/>
+        <v>842.33342285156255</v>
+      </c>
+      <c r="S8" s="22">
+        <f t="shared" si="1"/>
+        <v>102.99814453125001</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="2"/>
+        <v>822.92376880645759</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="2"/>
+        <v>99.482790756225597</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" si="3"/>
+        <v>825.79932881528521</v>
+      </c>
+      <c r="W8" s="22">
+        <f t="shared" si="3"/>
+        <v>99.422701955214151</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="21">
+        <f>$F54</f>
+        <v>73141</v>
+      </c>
+      <c r="G9" s="19">
+        <f>$F53</f>
+        <v>114374</v>
+      </c>
+      <c r="H9" s="21">
+        <f>$G54</f>
+        <v>159404</v>
+      </c>
+      <c r="I9" s="19">
+        <f>$G53</f>
+        <v>214091</v>
+      </c>
+      <c r="J9" s="21">
+        <f>$H54</f>
+        <v>5199406</v>
+      </c>
+      <c r="K9" s="19">
+        <f>$H53</f>
+        <v>6895937</v>
+      </c>
+      <c r="L9" s="21">
+        <f>$I54</f>
+        <v>5193637037</v>
+      </c>
+      <c r="M9" s="19">
+        <f>$I53</f>
+        <v>7069066112</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="0"/>
+        <v>48.213061523437503</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="0"/>
+        <v>75.393017578125011</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="1"/>
+        <v>13.134484863281251</v>
+      </c>
+      <c r="S9" s="22">
+        <f t="shared" si="1"/>
+        <v>17.640554809570315</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" si="2"/>
+        <v>13.388057899475099</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="2"/>
+        <v>17.756490612030031</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="3"/>
+        <v>13.059768825676294</v>
+      </c>
+      <c r="W9" s="22">
+        <f t="shared" si="3"/>
+        <v>17.775668299198152</v>
+      </c>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="21">
+        <f>$F56</f>
+        <v>47428</v>
+      </c>
+      <c r="G10" s="19">
+        <f>$F55</f>
+        <v>53547</v>
+      </c>
+      <c r="H10" s="21">
+        <f>$G56</f>
+        <v>88113</v>
+      </c>
+      <c r="I10" s="19">
+        <f>$G55</f>
+        <v>99120</v>
+      </c>
+      <c r="J10" s="21">
+        <f>$H56</f>
+        <v>2837823</v>
+      </c>
+      <c r="K10" s="19">
+        <f>$H55</f>
+        <v>3064694</v>
+      </c>
+      <c r="L10" s="21">
+        <f>$I56</f>
+        <v>2906605823</v>
+      </c>
+      <c r="M10" s="19">
+        <f>$I55</f>
+        <v>3160653145</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="0"/>
+        <v>31.263574218750001</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="0"/>
+        <v>35.297094726562506</v>
+      </c>
+      <c r="R10" s="22">
+        <f t="shared" si="1"/>
+        <v>7.2602874755859377</v>
+      </c>
+      <c r="S10" s="22">
+        <f t="shared" si="1"/>
+        <v>8.167236328125</v>
+      </c>
+      <c r="T10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.3071690559387212</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.8913438796997077</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="3"/>
+        <v>7.3088665698654953</v>
+      </c>
+      <c r="W10" s="22">
+        <f t="shared" si="3"/>
+        <v>7.9476865860633561</v>
+      </c>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="21">
+        <f>$F58</f>
+        <v>185079</v>
+      </c>
+      <c r="G11" s="19">
+        <f>$F57</f>
+        <v>295810</v>
+      </c>
+      <c r="H11" s="21">
+        <f>$G58</f>
+        <v>330195</v>
+      </c>
+      <c r="I11" s="19">
+        <f>$G57</f>
+        <v>421117</v>
+      </c>
+      <c r="J11" s="21">
+        <f>$H58</f>
+        <v>10486435</v>
+      </c>
+      <c r="K11" s="19">
+        <f>$H57</f>
+        <v>11302145</v>
+      </c>
+      <c r="L11" s="21">
+        <f>$I58</f>
+        <v>10759583722</v>
+      </c>
+      <c r="M11" s="19">
+        <f>$I57</f>
+        <v>11610571201</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="0"/>
+        <v>122.00031738281251</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="0"/>
+        <v>194.991943359375</v>
+      </c>
+      <c r="R11" s="22">
+        <f t="shared" si="1"/>
+        <v>27.207229614257816</v>
+      </c>
+      <c r="S11" s="22">
+        <f t="shared" si="1"/>
+        <v>34.698971557617192</v>
+      </c>
+      <c r="T11" s="22">
+        <f t="shared" si="2"/>
+        <v>27.00173807144165</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="2"/>
+        <v>29.102126598358158</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="3"/>
+        <v>27.055736677162351</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" si="3"/>
+        <v>29.195605071913452</v>
+      </c>
+    </row>
+    <row r="12" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="21">
+        <f>$F60</f>
+        <v>187530</v>
+      </c>
+      <c r="G12" s="19">
+        <f>$F59</f>
+        <v>246864</v>
+      </c>
+      <c r="H12" s="21">
+        <f>$G60</f>
+        <v>327735</v>
+      </c>
+      <c r="I12" s="19">
+        <f>$G59</f>
+        <v>297003</v>
+      </c>
+      <c r="J12" s="21">
+        <f>$H60</f>
+        <v>10389359</v>
+      </c>
+      <c r="K12" s="19">
+        <f>$H59</f>
+        <v>9149518</v>
+      </c>
+      <c r="L12" s="21">
+        <f>$I60</f>
+        <v>10662335639</v>
+      </c>
+      <c r="M12" s="19">
+        <f>$I59</f>
+        <v>9395542413</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="0"/>
+        <v>123.61596679687501</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="0"/>
+        <v>162.72773437500001</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="1"/>
+        <v>27.004531860351562</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" si="1"/>
+        <v>24.472293090820315</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="2"/>
+        <v>26.751775074005128</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="2"/>
+        <v>23.559282875061037</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="3"/>
+        <v>26.811199472565207</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" si="3"/>
+        <v>23.625758024957033</v>
+      </c>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="21">
+        <f>$F62</f>
+        <v>336187</v>
+      </c>
+      <c r="G13" s="19">
+        <f>$F61</f>
+        <v>724918</v>
+      </c>
+      <c r="H13" s="21">
+        <f>$G62</f>
+        <v>648834</v>
+      </c>
+      <c r="I13" s="19">
+        <f>$G61</f>
+        <v>1373025</v>
+      </c>
+      <c r="J13" s="21">
+        <f>$H62</f>
+        <v>20034640</v>
+      </c>
+      <c r="K13" s="19">
+        <f>$H61</f>
+        <v>42980837</v>
+      </c>
+      <c r="L13" s="21">
+        <f>$I62</f>
+        <v>20572719936</v>
+      </c>
+      <c r="M13" s="19">
+        <f>$I61</f>
+        <v>43711831102</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="0"/>
+        <v>221.60764160156251</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="0"/>
+        <v>477.85122070312502</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="1"/>
+        <v>53.462274169921876</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="1"/>
+        <v>113.13377380371095</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="2"/>
+        <v>51.587608337402344</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="2"/>
+        <v>110.67224493026734</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="3"/>
+        <v>51.731563943624501</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="3"/>
+        <v>109.9165007242933</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="21">
+        <f>$F64</f>
+        <v>255644</v>
+      </c>
+      <c r="G14" s="19">
+        <f>$F63</f>
+        <v>324376</v>
+      </c>
+      <c r="H14" s="21">
+        <f>$G64</f>
+        <v>478206</v>
+      </c>
+      <c r="I14" s="19">
+        <f>$G63</f>
+        <v>608575</v>
+      </c>
+      <c r="J14" s="21">
+        <f>$H64</f>
+        <v>15386647</v>
+      </c>
+      <c r="K14" s="19">
+        <f>$H63</f>
+        <v>19670244</v>
+      </c>
+      <c r="L14" s="21">
+        <f>$I64</f>
+        <v>15737515881</v>
+      </c>
+      <c r="M14" s="19">
+        <f>$I63</f>
+        <v>20201018591</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="0"/>
+        <v>168.51533203125001</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="0"/>
+        <v>213.82207031250002</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="1"/>
+        <v>39.402960205078131</v>
+      </c>
+      <c r="S14" s="22">
+        <f t="shared" si="1"/>
+        <v>50.145034790039063</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="2"/>
+        <v>39.619395160675055</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="2"/>
+        <v>50.649317550659184</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="3"/>
+        <v>39.573100282531236</v>
+      </c>
+      <c r="W14" s="22">
+        <f t="shared" si="3"/>
+        <v>50.796894538868223</v>
+      </c>
+    </row>
+    <row r="15" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21">
+        <f>$F66</f>
+        <v>239864</v>
+      </c>
+      <c r="G15" s="19">
+        <f>$F65</f>
+        <v>539166</v>
+      </c>
+      <c r="H15" s="21">
+        <f>$G66</f>
+        <v>448755</v>
+      </c>
+      <c r="I15" s="19">
+        <f>$G65</f>
+        <v>1023616</v>
+      </c>
+      <c r="J15" s="21">
+        <f>$H66</f>
+        <v>14442141</v>
+      </c>
+      <c r="K15" s="19">
+        <f>$H65</f>
+        <v>31696181</v>
+      </c>
+      <c r="L15" s="21">
+        <f>$I66</f>
+        <v>14832493094</v>
+      </c>
+      <c r="M15" s="19">
+        <f>$I65</f>
+        <v>32533269848</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="0"/>
+        <v>158.11347656250001</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="0"/>
+        <v>355.40727539062505</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="1"/>
+        <v>36.976272583007813</v>
+      </c>
+      <c r="S15" s="22">
+        <f t="shared" si="1"/>
+        <v>84.343359375000006</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="2"/>
+        <v>37.187367153167727</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="2"/>
+        <v>81.615151119232181</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="3"/>
+        <v>37.297356271930042</v>
+      </c>
+      <c r="W15" s="22">
+        <f t="shared" si="3"/>
+        <v>81.807215315848595</v>
+      </c>
+    </row>
+    <row r="16" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="21">
+        <f>$F68</f>
+        <v>1443903</v>
+      </c>
+      <c r="G16" s="19">
+        <f>$F67</f>
+        <v>1179086</v>
+      </c>
+      <c r="H16" s="21">
+        <f>$G68</f>
+        <v>2625745</v>
+      </c>
+      <c r="I16" s="19">
+        <f>$G67</f>
+        <v>1850759</v>
+      </c>
+      <c r="J16" s="21">
+        <f>$H68</f>
+        <v>85117718</v>
+      </c>
+      <c r="K16" s="19">
+        <f>$H67</f>
+        <v>63590353</v>
+      </c>
+      <c r="L16" s="21">
+        <f>$I68</f>
+        <v>86518744395</v>
+      </c>
+      <c r="M16" s="19">
+        <f>$I67</f>
+        <v>65162667832</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="0"/>
+        <v>951.79152832031252</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="0"/>
+        <v>777.22954101562505</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="1"/>
+        <v>216.35472106933597</v>
+      </c>
+      <c r="S16" s="22">
+        <f t="shared" si="1"/>
+        <v>152.49784240722659</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="2"/>
+        <v>219.17137012481692</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="2"/>
+        <v>163.74011335372927</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="3"/>
+        <v>217.55752141261476</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="3"/>
+        <v>163.85615165010097</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21">
+        <f>$F70</f>
+        <v>18271</v>
+      </c>
+      <c r="G17" s="19">
+        <f>$F69</f>
+        <v>28404</v>
+      </c>
+      <c r="H17" s="21">
+        <f>$G70</f>
+        <v>145772</v>
+      </c>
+      <c r="I17" s="19">
+        <f>$G69</f>
+        <v>213424</v>
+      </c>
+      <c r="J17" s="21">
+        <f>$H70</f>
+        <v>4418369</v>
+      </c>
+      <c r="K17" s="19">
+        <f>$H69</f>
+        <v>6848843</v>
+      </c>
+      <c r="L17" s="21">
+        <f>$I70</f>
+        <v>4837830877</v>
+      </c>
+      <c r="M17" s="19">
+        <f>$I69</f>
+        <v>7024500305</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="0"/>
+        <v>12.043872070312501</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="0"/>
+        <v>18.723339843750001</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="1"/>
+        <v>12.011242675781251</v>
+      </c>
+      <c r="S17" s="22">
+        <f t="shared" si="1"/>
+        <v>17.585595703125001</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="2"/>
+        <v>11.37694959640503</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="2"/>
+        <v>17.635227298736574</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="3"/>
+        <v>12.165068991389127</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="3"/>
+        <v>17.663604415487498</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="21">
+        <f>$F72</f>
+        <v>40065</v>
+      </c>
+      <c r="G18" s="19">
+        <f>$F71</f>
+        <v>58089</v>
+      </c>
+      <c r="H18" s="21">
+        <f>$G72</f>
+        <v>300929</v>
+      </c>
+      <c r="I18" s="19">
+        <f>$G71</f>
+        <v>431361</v>
+      </c>
+      <c r="J18" s="21">
+        <f>$H72</f>
+        <v>9682761</v>
+      </c>
+      <c r="K18" s="19">
+        <f>$H71</f>
+        <v>13890734</v>
+      </c>
+      <c r="L18" s="21">
+        <f>$I72</f>
+        <v>9934200695</v>
+      </c>
+      <c r="M18" s="19">
+        <f>$I71</f>
+        <v>14228312927</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="0"/>
+        <v>26.4100341796875</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="0"/>
+        <v>38.291088867187504</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="1"/>
+        <v>24.795785522460939</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="1"/>
+        <v>35.543051147460943</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="2"/>
+        <v>24.932341289520267</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="2"/>
+        <v>35.767537879943852</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="3"/>
+        <v>24.980252493638545</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="3"/>
+        <v>35.778102374542506</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="21">
+        <f>$F74</f>
+        <v>1074250</v>
+      </c>
+      <c r="G19" s="19">
+        <f>$F73</f>
+        <v>172111</v>
+      </c>
+      <c r="H19" s="21">
+        <f>$G74</f>
+        <v>9987447</v>
+      </c>
+      <c r="I19" s="19">
+        <f>$G73</f>
+        <v>1228716</v>
+      </c>
+      <c r="J19" s="21">
+        <f>$H74</f>
+        <v>322383123</v>
+      </c>
+      <c r="K19" s="19">
+        <f>$H73</f>
+        <v>41247225</v>
+      </c>
+      <c r="L19" s="21">
+        <f>$I74</f>
+        <v>325961523696</v>
+      </c>
+      <c r="M19" s="19">
+        <f>$I73</f>
+        <v>40396150764</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="0"/>
+        <v>708.123779296875</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="0"/>
+        <v>113.4520751953125</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="1"/>
+        <v>822.94027404785163</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" si="1"/>
+        <v>101.24307861328126</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="2"/>
+        <v>830.11096200942995</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="2"/>
+        <v>106.20833158493042</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="3"/>
+        <v>819.65337878018624</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="3"/>
+        <v>101.57898726202548</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="21">
+        <f>$F76</f>
+        <v>19537</v>
+      </c>
+      <c r="G20" s="19">
+        <f>$F75</f>
+        <v>27335</v>
+      </c>
+      <c r="H20" s="21">
+        <f>$G76</f>
+        <v>139828</v>
+      </c>
+      <c r="I20" s="19">
+        <f>$G75</f>
+        <v>203828</v>
+      </c>
+      <c r="J20" s="21">
+        <f>$H76</f>
+        <v>4540382</v>
+      </c>
+      <c r="K20" s="19">
+        <f>$H75</f>
+        <v>6568998</v>
+      </c>
+      <c r="L20" s="21">
+        <f>$I76</f>
+        <v>4574343064</v>
+      </c>
+      <c r="M20" s="19">
+        <f>$I75</f>
+        <v>6718536265</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="0"/>
+        <v>12.8783935546875</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="0"/>
+        <v>18.0186767578125</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="1"/>
+        <v>11.521472167968751</v>
+      </c>
+      <c r="S20" s="22">
+        <f t="shared" si="1"/>
+        <v>16.794909667968753</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="2"/>
+        <v>11.691123390197754</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="2"/>
+        <v>16.914648628234865</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="3"/>
+        <v>11.50251019075513</v>
+      </c>
+      <c r="W20" s="22">
+        <f t="shared" si="3"/>
+        <v>16.894236128311604</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+    </row>
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E24" s="49"/>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="5:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="20">
+        <f>(((4*1024*4)/(1024*1024))/F5)*10^9</f>
+        <v>47.992308944537783</v>
+      </c>
+      <c r="G28" s="20">
+        <f>(((4096*8)/(1024*1024))/G5)*10^9</f>
+        <v>66.791914865422314</v>
+      </c>
+      <c r="H28" s="20">
+        <f>(((32*1024*4)/(1024*1024))/H5)*10^9</f>
+        <v>194.70223019722556</v>
+      </c>
+      <c r="I28" s="20">
+        <f>(((32*1024*8)/(1024*1024))/I5)*10^9</f>
+        <v>276.17473686071071</v>
+      </c>
+      <c r="J28" s="20">
+        <f>(((1*1024*1024*8)/(1024*1024))/J5)*10^9</f>
+        <v>413.70537650990178</v>
+      </c>
+      <c r="K28" s="20">
+        <f>(((1*1024*1024*8)/(1024*1024))/K5)*10^9</f>
+        <v>288.92455742807158</v>
+      </c>
+      <c r="L28" s="20">
+        <f>(((1*1024*1024*1024*4)/(1024*1024))/L5)*10^9</f>
+        <v>206.72603642339104</v>
+      </c>
+      <c r="M28" s="20">
+        <f>(((1*1024*1024*1024*8)/(1024*1024))/M5)*10^9</f>
+        <v>288.98740390860104</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="20">
+        <f>(((4*1024*4)/(1024*1024))/F6)*10^9</f>
+        <v>63.549326478818251</v>
+      </c>
+      <c r="G29" s="20">
+        <f>(((4096*8)/(1024*1024))/G6)*10^9</f>
+        <v>75.050013328882358</v>
+      </c>
+      <c r="H29" s="20">
+        <f>(((32*1024*4)/(1024*1024))/H6)*10^9</f>
+        <v>267.2224894447117</v>
+      </c>
+      <c r="I29" s="20">
+        <f>(((32*1024*8)/(1024*1024))/I6)*10^9</f>
+        <v>327.8116735048182</v>
+      </c>
+      <c r="J29" s="20">
+        <f>(((1*1024*1024*4)/(1024*1024))/J6)*10^9</f>
+        <v>301.5966905795143</v>
+      </c>
+      <c r="K29" s="20">
+        <f>(((1*1024*1024*8)/(1024*1024))/K6)*10^9</f>
+        <v>345.55550185047133</v>
+      </c>
+      <c r="L29" s="20">
+        <f>(((1*1024*1024*1024*4)/(1024*1024))/L6)*10^9</f>
+        <v>302.97450865440254</v>
+      </c>
+      <c r="M29" s="20">
+        <f>(((1*1024*1024*1024*8)/(1024*1024))/M6)*10^9</f>
+        <v>338.00023683518157</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="20">
+        <f>(((4*1024)/(1024*1024))/F7)*10^9</f>
+        <v>85.018282331432545</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="20">
+        <f>(((32*1024)/(1024*1024))/H7)*10^9</f>
+        <v>90.344291252648901</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="20">
+        <f>(((1*1024*1024)/(1024*1024))/J7)*10^9</f>
+        <v>90.354127643095424</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="20">
+        <f>(((1*1024*1024*1024)/(1024*1024))/L7)*10^9</f>
+        <v>89.705306830246528</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" ref="F31:F43" si="4">(((4*1024*4)/(1024*1024))/F8)*10^9</f>
+        <v>3.3875426884579429</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" ref="G31:G43" si="5">(((4096*8)/(1024*1024))/G8)*10^9</f>
+        <v>43.142901715637883</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" ref="H31:H43" si="6">(((32*1024*4)/(1024*1024))/H8)*10^9</f>
+        <v>12.227560177203758</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" ref="I31:I43" si="7">(((32*1024*8)/(1024*1024))/I8)*10^9</f>
+        <v>199.99744003276757</v>
+      </c>
+      <c r="J31" s="20">
+        <f t="shared" ref="J31:J43" si="8">(((1*1024*1024*4)/(1024*1024))/J8)*10^9</f>
+        <v>12.515961997459172</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" ref="K31:K43" si="9">(((1*1024*1024*8)/(1024*1024))/K8)*10^9</f>
+        <v>207.06460964542151</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" ref="L31:L43" si="10">(((1*1024*1024*1024*4)/(1024*1024))/L8)*10^9</f>
+        <v>12.472379496800651</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" ref="M31:M43" si="11">(((1*1024*1024*1024*8)/(1024*1024))/M8)*10^9</f>
+        <v>207.18975474690046</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="4"/>
+        <v>213.62847103539738</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="5"/>
+        <v>273.22643258083127</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="6"/>
+        <v>784.17103711324683</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" si="7"/>
+        <v>1167.7277419415109</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="8"/>
+        <v>769.31864909183855</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="9"/>
+        <v>1160.1034058170776</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="10"/>
+        <v>788.65734567504012</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="11"/>
+        <v>1158.8518016678015</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>329.44674032217256</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="5"/>
+        <v>583.59945468466958</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="6"/>
+        <v>1418.6328918547774</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="7"/>
+        <v>2522.1953188054886</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="8"/>
+        <v>1409.5311793582616</v>
+      </c>
+      <c r="K33" s="20">
+        <f t="shared" si="9"/>
+        <v>2610.3748041403155</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="10"/>
+        <v>1409.2038100207164</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="11"/>
+        <v>2591.8693460430309</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>84.423408382366446</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="5"/>
+        <v>105.64213515432203</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="6"/>
+        <v>378.56418177137749</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="7"/>
+        <v>593.65924434302099</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="8"/>
+        <v>381.44517178621714</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="9"/>
+        <v>707.83023930413208</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="10"/>
+        <v>380.68387270642774</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" si="11"/>
+        <v>705.56390880187155</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="4"/>
+        <v>83.320002132992045</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="5"/>
+        <v>126.58791885410589</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="6"/>
+        <v>381.40570888065054</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="7"/>
+        <v>841.74233930296998</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="8"/>
+        <v>385.00931578165699</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="9"/>
+        <v>874.36299923121635</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="10"/>
+        <v>384.15598032929262</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="11"/>
+        <v>871.90282794799191</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>46.477109465862746</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="5"/>
+        <v>43.108323975953141</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="6"/>
+        <v>192.65328265781386</v>
+      </c>
+      <c r="I36" s="20">
+        <f t="shared" si="7"/>
+        <v>182.07971449900768</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="8"/>
+        <v>199.65419892745763</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="9"/>
+        <v>186.12946043838093</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="10"/>
+        <v>199.09861276206118</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="11"/>
+        <v>187.40921607434518</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>61.120151460624932</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" si="5"/>
+        <v>96.338816681875358</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="6"/>
+        <v>261.39362534138007</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="7"/>
+        <v>410.79571129277406</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="8"/>
+        <v>259.96567023341731</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="9"/>
+        <v>406.7056819427354</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="10"/>
+        <v>260.26979295665882</v>
+      </c>
+      <c r="M37" s="20">
+        <f t="shared" si="11"/>
+        <v>405.52410578195878</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>65.141079945302337</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" si="5"/>
+        <v>57.959886194604259</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="6"/>
+        <v>278.54842842976683</v>
+      </c>
+      <c r="I38" s="20">
+        <f t="shared" si="7"/>
+        <v>244.23221207952983</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="8"/>
+        <v>276.96724467653377</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="9"/>
+        <v>252.39633759032358</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="10"/>
+        <v>276.15047410046679</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" si="11"/>
+        <v>251.8037700567503</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="4"/>
+        <v>10.821364038997078</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="5"/>
+        <v>26.503579891543112</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="6"/>
+        <v>47.60553671434203</v>
+      </c>
+      <c r="I39" s="20">
+        <f t="shared" si="7"/>
+        <v>135.07971594356692</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="8"/>
+        <v>46.99374106810523</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="9"/>
+        <v>125.80524596238679</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="10"/>
+        <v>47.342342155357393</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" si="11"/>
+        <v>125.71615424218531</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>855.18034043018997</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="5"/>
+        <v>1100.1971553302351</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="6"/>
+        <v>857.50349861427435</v>
+      </c>
+      <c r="I40" s="20">
+        <f t="shared" si="7"/>
+        <v>1171.3771647050005</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="8"/>
+        <v>905.3114395832489</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="9"/>
+        <v>1168.0805064446652</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" si="10"/>
+        <v>846.66043607956408</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="11"/>
+        <v>1166.2039496487714</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="4"/>
+        <v>389.99126419568199</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" si="5"/>
+        <v>537.96760143917083</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="6"/>
+        <v>415.38037211435255</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" si="7"/>
+        <v>579.56097097326824</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="8"/>
+        <v>413.10531159449249</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="9"/>
+        <v>575.92348971623824</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="10"/>
+        <v>412.31299082386818</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="11"/>
+        <v>575.75343204988542</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="4"/>
+        <v>14.545031417267861</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="5"/>
+        <v>181.56887125169223</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="6"/>
+        <v>12.515710971983131</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" si="7"/>
+        <v>203.46442953457102</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="8"/>
+        <v>12.407597403912487</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" si="9"/>
+        <v>193.95244164910488</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="10"/>
+        <v>12.565900274230014</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="11"/>
+        <v>202.79159882977012</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="4"/>
+        <v>799.76454931668115</v>
+      </c>
+      <c r="G43" s="20">
+        <f t="shared" si="5"/>
+        <v>1143.2229742088898</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="6"/>
+        <v>893.95543095803407</v>
+      </c>
+      <c r="I43" s="20">
+        <f t="shared" si="7"/>
+        <v>1226.5243244304022</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" si="8"/>
+        <v>880.98314194708723</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" si="9"/>
+        <v>1217.8417469452722</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="10"/>
+        <v>895.42912341565466</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="11"/>
+        <v>1219.3132070561207</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="41"/>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1">
+        <v>467871</v>
+      </c>
+      <c r="G46" s="1">
+        <v>905224</v>
+      </c>
+      <c r="H46" s="1">
+        <v>27688889</v>
+      </c>
+      <c r="I46" s="1">
+        <v>28347256279</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1">
+        <v>325573</v>
+      </c>
+      <c r="G47" s="1">
+        <v>642006</v>
+      </c>
+      <c r="H47" s="1">
+        <v>19337433</v>
+      </c>
+      <c r="I47" s="1">
+        <v>19813662908</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1">
+        <v>416389</v>
+      </c>
+      <c r="G48" s="1">
+        <v>762633</v>
+      </c>
+      <c r="H48" s="1">
+        <v>23151129</v>
+      </c>
+      <c r="I48" s="1">
+        <v>24236669408</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1">
+        <v>245872</v>
+      </c>
+      <c r="G49" s="1">
+        <v>467775</v>
+      </c>
+      <c r="H49" s="1">
+        <v>13262745</v>
+      </c>
+      <c r="I49" s="1">
+        <v>13519289191</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45946</v>
+      </c>
+      <c r="G50" s="1">
+        <v>345899</v>
+      </c>
+      <c r="H50" s="1">
+        <v>11067563</v>
+      </c>
+      <c r="I50" s="1">
+        <v>11415155203</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1">
+        <v>724337</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1250016</v>
+      </c>
+      <c r="H51" s="1">
+        <v>38635284</v>
+      </c>
+      <c r="I51" s="1">
+        <v>39538634572</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4612488</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10222808</v>
+      </c>
+      <c r="H52" s="1">
+        <v>319591894</v>
+      </c>
+      <c r="I52" s="1">
+        <v>328405658363</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="1">
+        <v>114374</v>
+      </c>
+      <c r="G53" s="1">
+        <v>214091</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6895937</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7069066112</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="1">
+        <v>73141</v>
+      </c>
+      <c r="G54" s="1">
+        <v>159404</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5199406</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5193637037</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="1">
+        <v>53547</v>
+      </c>
+      <c r="G55" s="1">
+        <v>99120</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3064694</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3160653145</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="1">
+        <v>47428</v>
+      </c>
+      <c r="G56" s="1">
+        <v>88113</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2837823</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2906605823</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="1">
+        <v>295810</v>
+      </c>
+      <c r="G57" s="1">
+        <v>421117</v>
+      </c>
+      <c r="H57" s="1">
+        <v>11302145</v>
+      </c>
+      <c r="I57" s="1">
+        <v>11610571201</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1">
+        <v>185079</v>
+      </c>
+      <c r="G58" s="1">
+        <v>330195</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10486435</v>
+      </c>
+      <c r="I58" s="1">
+        <v>10759583722</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="1">
+        <v>246864</v>
+      </c>
+      <c r="G59" s="1">
+        <v>297003</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9149518</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9395542413</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="1">
+        <v>187530</v>
+      </c>
+      <c r="G60" s="1">
+        <v>327735</v>
+      </c>
+      <c r="H60" s="1">
+        <v>10389359</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10662335639</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="1">
+        <v>724918</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1373025</v>
+      </c>
+      <c r="H61" s="1">
+        <v>42980837</v>
+      </c>
+      <c r="I61" s="1">
+        <v>43711831102</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="1">
+        <v>336187</v>
+      </c>
+      <c r="G62" s="1">
+        <v>648834</v>
+      </c>
+      <c r="H62" s="1">
+        <v>20034640</v>
+      </c>
+      <c r="I62" s="1">
+        <v>20572719936</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="1">
+        <v>324376</v>
+      </c>
+      <c r="G63" s="1">
+        <v>608575</v>
+      </c>
+      <c r="H63" s="1">
+        <v>19670244</v>
+      </c>
+      <c r="I63" s="1">
+        <v>20201018591</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="1">
+        <v>255644</v>
+      </c>
+      <c r="G64" s="1">
+        <v>478206</v>
+      </c>
+      <c r="H64" s="1">
+        <v>15386647</v>
+      </c>
+      <c r="I64" s="1">
+        <v>15737515881</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="1">
+        <v>539166</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1023616</v>
+      </c>
+      <c r="H65" s="1">
+        <v>31696181</v>
+      </c>
+      <c r="I65" s="1">
+        <v>32533269848</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="1">
+        <v>239864</v>
+      </c>
+      <c r="G66" s="1">
+        <v>448755</v>
+      </c>
+      <c r="H66" s="1">
+        <v>14442141</v>
+      </c>
+      <c r="I66" s="1">
+        <v>14832493094</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1179086</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1850759</v>
+      </c>
+      <c r="H67" s="1">
+        <v>63590353</v>
+      </c>
+      <c r="I67" s="1">
+        <v>65162667832</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1443903</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2625745</v>
+      </c>
+      <c r="H68" s="1">
+        <v>85117718</v>
+      </c>
+      <c r="I68" s="1">
+        <v>86518744395</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="1">
+        <v>28404</v>
+      </c>
+      <c r="G69" s="1">
+        <v>213424</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6848843</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7024500305</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="1">
+        <v>18271</v>
+      </c>
+      <c r="G70" s="1">
+        <v>145772</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4418369</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4837830877</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="1">
+        <v>58089</v>
+      </c>
+      <c r="G71" s="1">
+        <v>431361</v>
+      </c>
+      <c r="H71" s="1">
+        <v>13890734</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14228312927</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="1">
+        <v>40065</v>
+      </c>
+      <c r="G72" s="1">
+        <v>300929</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9682761</v>
+      </c>
+      <c r="I72" s="1">
+        <v>9934200695</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="1">
+        <v>172111</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1228716</v>
+      </c>
+      <c r="H73" s="1">
+        <v>41247225</v>
+      </c>
+      <c r="I73" s="1">
+        <v>40396150764</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1074250</v>
+      </c>
+      <c r="G74" s="1">
+        <v>9987447</v>
+      </c>
+      <c r="H74" s="1">
+        <v>322383123</v>
+      </c>
+      <c r="I74" s="1">
+        <v>325961523696</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="1">
+        <v>27335</v>
+      </c>
+      <c r="G75" s="1">
+        <v>203828</v>
+      </c>
+      <c r="H75" s="1">
+        <v>6568998</v>
+      </c>
+      <c r="I75" s="1">
+        <v>6718536265</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="1">
+        <v>19537</v>
+      </c>
+      <c r="G76" s="1">
+        <v>139828</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4540382</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4574343064</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
